--- a/simulated_data/dyads_simulated/cond3_no_coupling/HRV_B.xlsx
+++ b/simulated_data/dyads_simulated/cond3_no_coupling/HRV_B.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A693"/>
+  <dimension ref="A1:A697"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -435,3457 +435,3477 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>584.6957387394045</v>
+        <v>585.8359934229338</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>608.1072543338337</v>
+        <v>648.8725970206513</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>639.0911543829869</v>
+        <v>679.1882867001098</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>654.655347852053</v>
+        <v>683.2048825640418</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>653.5164372910591</v>
+        <v>659.0026466669694</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>617.4038998595139</v>
+        <v>603.7296009315103</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>555.7023396044829</v>
+        <v>549.3625157083679</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>572.4744392896835</v>
+        <v>565.5324673023143</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>574.1750339412945</v>
+        <v>554.9787417788688</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>567.1581870847389</v>
+        <v>580.871414339275</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>627.3280853167895</v>
+        <v>632.2706053549663</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>682.2289488786364</v>
+        <v>674.7056565351297</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>757.2619623138266</v>
+        <v>760.9465065993274</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>699.9189105171819</v>
+        <v>701.9936341666711</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>736.8019040527116</v>
+        <v>720.8837551595693</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>657.5681327197404</v>
+        <v>644.8274490077974</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>539.188946138097</v>
+        <v>534.8470376862356</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>475.5109392212127</v>
+        <v>501.7326852970303</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>521.6951950202233</v>
+        <v>555.2076514261479</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>588.1281582017</v>
+        <v>589.1705170603565</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>652.8128454687803</v>
+        <v>629.9561188266107</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>651.7744488985961</v>
+        <v>654.0033355660171</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>610.8477495248845</v>
+        <v>616.1203870517725</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>569.4642755511659</v>
+        <v>558.711331036573</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>613.4886770194861</v>
+        <v>597.5826114896065</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>677.2805108775639</v>
+        <v>673.6371735629376</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>663.0221328772166</v>
+        <v>656.9762642089501</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>661.0712718833156</v>
+        <v>660.9840603816508</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>725.7576918975382</v>
+        <v>739.8356280522407</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>823.7349432999749</v>
+        <v>829.2389118087619</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>809.4342006355042</v>
+        <v>800.7674443325463</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>780.6136487542901</v>
+        <v>786.4121969075698</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>699.8538582643334</v>
+        <v>716.9199531806463</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>616.4134681952653</v>
+        <v>612.1660956538726</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>640.2647781875963</v>
+        <v>646.3664213130791</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>671.0200208421924</v>
+        <v>668.4869962781015</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>674.2448965932297</v>
+        <v>671.9545697699481</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>677.7532609204258</v>
+        <v>691.1011752336584</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>724.5054551359864</v>
+        <v>738.0544504451194</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>757.0097310852652</v>
+        <v>756.1857506247769</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>734.6878835259396</v>
+        <v>729.6492380506479</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>667.8708125900421</v>
+        <v>658.8176414555917</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>647.2536461485099</v>
+        <v>642.9623389484966</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>625.4775151409291</v>
+        <v>610.7468773370997</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>642.8424217568285</v>
+        <v>634.8884866047832</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>703.8871742597763</v>
+        <v>698.6369059781481</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>790.1870256842649</v>
+        <v>766.6851074082182</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>816.0824457250656</v>
+        <v>822.3445457843219</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>818.6731581865167</v>
+        <v>834.1339937662938</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>801.3550769130759</v>
+        <v>808.6457398923415</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>750.5276195267641</v>
+        <v>747.2410985771987</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>706.9963055033099</v>
+        <v>688.3592103716082</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>707.5866294505744</v>
+        <v>684.3559132094797</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>682.2107633928454</v>
+        <v>670.729418690506</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>648.0945478007029</v>
+        <v>637.4641822108345</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>650.7959381252277</v>
+        <v>681.9506745078598</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>652.2461703723366</v>
+        <v>695.3116342976741</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>602.0855702260874</v>
+        <v>681.7116548882041</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>572.8444043555214</v>
+        <v>604.137172947631</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>659.361784892262</v>
+        <v>647.22995229463</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>717.4651358498352</v>
+        <v>682.5125461015418</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>798.7027450094786</v>
+        <v>744.613226290511</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>818.106414078315</v>
+        <v>797.1008974389306</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>789.9097702071672</v>
+        <v>811.9211602557712</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>659.6445314229911</v>
+        <v>679.372533985621</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>558.3842472361127</v>
+        <v>555.139235051513</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>528.2880218395718</v>
+        <v>518.8673703990787</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>487.5686175293623</v>
+        <v>500.6570975565694</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>514.7181967063119</v>
+        <v>530.5181427031442</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>571.7279474375943</v>
+        <v>582.7696795329232</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>635.4564714477463</v>
+        <v>630.4440318491445</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>698.7624971775404</v>
+        <v>686.3964784191552</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>710.4142644977856</v>
+        <v>705.3819876910622</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>709.3629539560737</v>
+        <v>752.304728386214</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>724.1353315359547</v>
+        <v>730.4762814008541</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>711.9484015687831</v>
+        <v>687.5929128374808</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>647.6525301710367</v>
+        <v>656.8053796079098</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>650.9305804533838</v>
+        <v>663.1735343054146</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>683.0557596006415</v>
+        <v>667.4287273319592</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>692.3328351255905</v>
+        <v>679.1847068583436</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>764.5598931787631</v>
+        <v>737.6466432162872</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>804.06887219997</v>
+        <v>803.2545592531761</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>814.0740995449462</v>
+        <v>829.5817054398285</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>716.0151068071698</v>
+        <v>757.5685310454148</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>649.4989484029219</v>
+        <v>676.8849398198853</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>627.1082081371944</v>
+        <v>632.9145389432966</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>693.4621962006844</v>
+        <v>672.0179451428265</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>723.1439567396194</v>
+        <v>717.1161632001599</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>664.0968795340498</v>
+        <v>671.8785474186717</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>645.734960101855</v>
+        <v>655.8728196748759</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>627.6037055064307</v>
+        <v>640.1528305467963</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>618.3524459739544</v>
+        <v>642.5791609747976</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>658.5385659940712</v>
+        <v>649.0367706520956</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>644.6719010397644</v>
+        <v>634.130037177023</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>625.6530750477225</v>
+        <v>623.530980467649</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>649.9744563234344</v>
+        <v>649.5086992447555</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>708.2875755337597</v>
+        <v>691.6654833563882</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>714.0222523698867</v>
+        <v>716.1751390301134</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>647.746980767181</v>
+        <v>666.342940555225</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>577.8562408432322</v>
+        <v>602.7836697497406</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>544.93938590646</v>
+        <v>561.6993006436672</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>522.8049628703815</v>
+        <v>524.4214983535613</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>564.8854467005719</v>
+        <v>557.9276961520634</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>661.6605583159583</v>
+        <v>636.7372503720077</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>727.7570947124019</v>
+        <v>710.4381403922559</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>673.6187674012086</v>
+        <v>675.9644518035657</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>662.2762384518808</v>
+        <v>663.6332092923567</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>632.3228291475829</v>
+        <v>633.6333993868664</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>632.8832328530751</v>
+        <v>631.8279200933432</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>661.2551503905308</v>
+        <v>649.4771322608273</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>688.2352293068124</v>
+        <v>688.2574616624311</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>718.6989440710789</v>
+        <v>716.2176011860879</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>738.9524759744717</v>
+        <v>756.4529503739692</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>719.3587879621504</v>
+        <v>741.6028336438529</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>695.1702906562502</v>
+        <v>702.9970625088282</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>705.9741709749687</v>
+        <v>721.3251916332695</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>707.5040219373392</v>
+        <v>703.7790786153408</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>693.9732283168354</v>
+        <v>704.9814101331293</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>623.4090436711455</v>
+        <v>635.0856875474022</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>645.4481223837831</v>
+        <v>633.6858456842549</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>669.0697457371755</v>
+        <v>694.4462871963424</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>619.9013406439633</v>
+        <v>624.8606551195905</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>685.3226982406824</v>
+        <v>668.6010874609849</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>742.9690962186868</v>
+        <v>737.4046787871862</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>694.9656408885545</v>
+        <v>687.2778500936079</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>713.8788420435418</v>
+        <v>683.4161590789734</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>697.8104384672008</v>
+        <v>684.875101813887</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>631.0861260195679</v>
+        <v>623.9111506953776</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>635.5883966195819</v>
+        <v>644.9770857880139</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>666.2097991626865</v>
+        <v>666.7170134751359</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>643.8272945235894</v>
+        <v>623.7750301074243</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>624.1260638044821</v>
+        <v>644.1047901078321</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>604.8268357107673</v>
+        <v>643.0077075953022</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>641.5909407832316</v>
+        <v>619.7438320953239</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>626.9115079426513</v>
+        <v>594.5620265174654</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>603.5822791179584</v>
+        <v>584.3647468964974</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>652.8919223948293</v>
+        <v>603.5247398397274</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>713.9845263796758</v>
+        <v>665.0967363792688</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>677.4317536539627</v>
+        <v>695.9650539828885</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>565.1965401721668</v>
+        <v>618.7766115382942</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>485.0023377072148</v>
+        <v>511.9332144390114</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>451.696252666892</v>
+        <v>460.7910673552738</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>396.400749414525</v>
+        <v>423.6671024015379</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>415.1150727973345</v>
+        <v>403.8033872334523</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>435.2435071356808</v>
+        <v>453.7308391998209</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>484.9802880117835</v>
+        <v>488.5271347391296</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>485.7672691062191</v>
+        <v>502.1087177428711</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>522.0919364208072</v>
+        <v>518.8185138549244</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>625.0359417429934</v>
+        <v>585.4605734393346</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>747.2492546028349</v>
+        <v>713.9681051321958</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>771.9565102128172</v>
+        <v>756.7748942641401</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>662.4686708347838</v>
+        <v>715.0495582932024</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>582.9310469591462</v>
+        <v>616.6244497395894</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>535.4694974564609</v>
+        <v>525.2385341764096</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>492.1878193138554</v>
+        <v>501.730843592199</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>475.5825782499414</v>
+        <v>483.1624856778802</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>521.5600374839084</v>
+        <v>498.4259597998175</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>490.3801709274944</v>
+        <v>511.022052543936</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>468.2979340077935</v>
+        <v>489.6204822150878</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>515.6113254435155</v>
+        <v>506.4883502374329</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>588.6621437484933</v>
+        <v>568.7816963138346</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>617.9883278318385</v>
+        <v>622.363813626464</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>592.328516245729</v>
+        <v>598.0820807459253</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>570.7521038756624</v>
+        <v>568.1031402305194</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>608.2031885765389</v>
+        <v>598.5217812562951</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>611.887268430479</v>
+        <v>613.9428963502809</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>525.3674256966718</v>
+        <v>571.0515025189977</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>448.004641160054</v>
+        <v>491.1148363092224</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>424.3539671731611</v>
+        <v>437.0749767107611</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>428.5624234528314</v>
+        <v>410.0163664326431</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>414.7238354915999</v>
+        <v>405.7802440374871</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>404.6241191549029</v>
+        <v>394.035185204217</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>478.7205020497254</v>
+        <v>456.5521460361168</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="n">
-        <v>510.9692332105737</v>
+        <v>492.8410180220908</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>572.9176609284536</v>
+        <v>542.4550643101753</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="n">
-        <v>618.4404313200389</v>
+        <v>582.5111840657513</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="n">
-        <v>655.3512359000422</v>
+        <v>633.3484574953587</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="n">
-        <v>627.1049718667285</v>
+        <v>650.4459112938719</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>586.7496879373562</v>
+        <v>590.656363350945</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="n">
-        <v>558.1272307068303</v>
+        <v>554.8346888688656</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>590.2868087874253</v>
+        <v>558.6861428467955</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="n">
-        <v>581.9203830942001</v>
+        <v>587.2817769342475</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>526.7252971364655</v>
+        <v>567.6121007284536</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>498.9953435429726</v>
+        <v>535.3771476402756</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="n">
-        <v>493.7572140965898</v>
+        <v>495.3035299291741</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="n">
-        <v>497.5388265032734</v>
+        <v>489.5768538922027</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="n">
-        <v>467.9402247466413</v>
+        <v>473.3337374374855</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="n">
-        <v>450.0098283279925</v>
+        <v>463.9423621325278</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="n">
-        <v>472.6487167093438</v>
+        <v>456.9374786846367</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="n">
-        <v>515.646775956867</v>
+        <v>492.4304071338526</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="n">
-        <v>561.617402677598</v>
+        <v>540.2322012825778</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="n">
-        <v>590.1677821880327</v>
+        <v>580.6358236306295</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="n">
-        <v>619.3074823174385</v>
+        <v>591.0820732376578</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="n">
-        <v>645.4327619625957</v>
+        <v>630.8942515651097</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="n">
-        <v>695.6542933823329</v>
+        <v>668.2691131272378</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="n">
-        <v>673.8084914933751</v>
+        <v>682.4184275447749</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="n">
-        <v>598.5277124651134</v>
+        <v>627.8387778403243</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="n">
-        <v>574.383024404483</v>
+        <v>567.06796183839</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="n">
-        <v>635.8907943592698</v>
+        <v>602.2479104216103</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="n">
-        <v>716.8589068158298</v>
+        <v>677.0388610402591</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="n">
-        <v>741.6723436268171</v>
+        <v>744.4433159884909</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="n">
-        <v>696.8087223972361</v>
+        <v>720.6452853582022</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="n">
-        <v>613.3712138342275</v>
+        <v>662.1978929641301</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="n">
-        <v>625.9442718599075</v>
+        <v>575.4595434904957</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="n">
-        <v>634.676212604802</v>
+        <v>612.6937981573803</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="n">
-        <v>653.3114476835635</v>
+        <v>651.5864128205635</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="n">
-        <v>586.1644176819141</v>
+        <v>641.3712584610209</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="n">
-        <v>564.4115029047612</v>
+        <v>599.2924575116092</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="n">
-        <v>584.8488088704755</v>
+        <v>615.5965882833527</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="n">
-        <v>621.0681366449364</v>
+        <v>617.791000884921</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="n">
-        <v>634.1156160037542</v>
+        <v>642.4157573766252</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="n">
-        <v>685.7477762524695</v>
+        <v>661.8898170933392</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="n">
-        <v>623.8853707601208</v>
+        <v>651.9987336614861</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="n">
-        <v>634.2686549708958</v>
+        <v>552.7429462681823</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="n">
-        <v>668.0469465333658</v>
+        <v>622.0687943026348</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="n">
-        <v>655.7110473246155</v>
+        <v>687.7769895746724</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="n">
-        <v>590.5044039950269</v>
+        <v>663.7572032095989</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="n">
-        <v>568.1768078655409</v>
+        <v>581.4726038068159</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="n">
-        <v>578.8685727878544</v>
+        <v>584.6854762172029</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="n">
-        <v>640.3353878192206</v>
+        <v>621.7781920995833</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="n">
-        <v>711.8703573905236</v>
+        <v>674.5707751256589</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="n">
-        <v>701.9055216137247</v>
+        <v>669.1560992259724</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="n">
-        <v>688.8869118075149</v>
+        <v>669.4536370878552</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="n">
-        <v>585.4832563708499</v>
+        <v>661.5743175112812</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="n">
-        <v>542.8819947307488</v>
+        <v>555.5125020373453</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="n">
-        <v>550.9419976017114</v>
+        <v>557.2746502924417</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="n">
-        <v>576.3377624139991</v>
+        <v>562.7527210897938</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="n">
-        <v>633.9980274412653</v>
+        <v>600.6084774744522</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="n">
-        <v>696.4278489564606</v>
+        <v>637.4051513552104</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="n">
-        <v>681.5629229658384</v>
+        <v>702.7395946211641</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="n">
-        <v>672.5857713485652</v>
+        <v>694.7254836437935</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="n">
-        <v>653.2990257795745</v>
+        <v>635.6298001478535</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="n">
-        <v>661.4366411275796</v>
+        <v>608.3260068134564</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="n">
-        <v>675.1428477466845</v>
+        <v>650.7662793660813</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="n">
-        <v>695.5705046748335</v>
+        <v>686.4104611717892</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="n">
-        <v>730.7288062309851</v>
+        <v>715.9478725387203</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="n">
-        <v>693.4593051356046</v>
+        <v>768.0903469109239</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="n">
-        <v>692.3439296612628</v>
+        <v>706.9181615781304</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="n">
-        <v>703.605744394082</v>
+        <v>695.815865373703</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="n">
-        <v>730.462941156901</v>
+        <v>692.2816736333175</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="n">
-        <v>739.9075658154004</v>
+        <v>721.9099374514144</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="n">
-        <v>726.0022859264552</v>
+        <v>716.4332990230946</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="n">
-        <v>667.8089783553105</v>
+        <v>726.1385963344367</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="n">
-        <v>642.6463911077178</v>
+        <v>690.7439971447218</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="n">
-        <v>667.6710622516282</v>
+        <v>651.2478207381207</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="n">
-        <v>677.9526562377782</v>
+        <v>693.8492149360229</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="n">
-        <v>614.2363026154385</v>
+        <v>701.8813166653217</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="n">
-        <v>607.4495115706782</v>
+        <v>613.0828760828706</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="n">
-        <v>649.8444379023454</v>
+        <v>605.4082447522262</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="n">
-        <v>674.4813856558665</v>
+        <v>646.3066420311634</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="n">
-        <v>634.0828245385239</v>
+        <v>672.4651077541353</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="n">
-        <v>586.8103133588818</v>
+        <v>625.3726874469123</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="n">
-        <v>585.992243269402</v>
+        <v>604.7984857941344</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="n">
-        <v>662.008371697425</v>
+        <v>614.9111339396427</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="n">
-        <v>733.1865489205427</v>
+        <v>678.9696177158362</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="n">
-        <v>815.2011627008449</v>
+        <v>724.3281492760332</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="n">
-        <v>787.0040367139666</v>
+        <v>807.4910764555341</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="n">
-        <v>712.994061235662</v>
+        <v>768.964270657591</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="n">
-        <v>665.5951778508609</v>
+        <v>721.8335117530899</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="n">
-        <v>585.3492155486322</v>
+        <v>649.5132606972049</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="n">
-        <v>573.2257159073129</v>
+        <v>595.3872594749612</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="n">
-        <v>603.7570247250414</v>
+        <v>636.3338949338129</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="n">
-        <v>630.5957562045705</v>
+        <v>660.6943456311569</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="n">
-        <v>674.2393931851609</v>
+        <v>646.156327437069</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="n">
-        <v>718.7512070855746</v>
+        <v>690.0279444392936</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="n">
-        <v>711.0663919742706</v>
+        <v>709.8297758072647</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="n">
-        <v>785.6710564188916</v>
+        <v>699.196795490451</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="n">
-        <v>782.7522339116513</v>
+        <v>772.779041976861</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="n">
-        <v>788.1958365491926</v>
+        <v>765.418770473218</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="n">
-        <v>751.4775288398425</v>
+        <v>759.7199435756181</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="n">
-        <v>653.9992649986459</v>
+        <v>707.2215052756121</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="n">
-        <v>675.1171134815479</v>
+        <v>661.0051886446797</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="n">
-        <v>732.900234432833</v>
+        <v>699.0465319724137</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="n">
-        <v>752.8579731105651</v>
+        <v>766.510593587185</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="n">
-        <v>726.6586217744475</v>
+        <v>776.7608657683525</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="n">
-        <v>684.7488188373347</v>
+        <v>719.4299183261421</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="n">
-        <v>669.7652941982994</v>
+        <v>674.9941322668178</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="n">
-        <v>676.7793521489409</v>
+        <v>686.84812807507</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="n">
-        <v>623.2233910584171</v>
+        <v>681.7778049841365</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="n">
-        <v>584.7019787302656</v>
+        <v>612.8587557345782</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="n">
-        <v>592.4706264258646</v>
+        <v>591.0477581658995</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="n">
-        <v>596.689206389442</v>
+        <v>580.5858399335477</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="n">
-        <v>626.9096416149011</v>
+        <v>595.7310218559257</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="n">
-        <v>694.6886718560279</v>
+        <v>621.5041987576058</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="n">
-        <v>745.495087182718</v>
+        <v>685.7008834721228</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="n">
-        <v>693.627675038698</v>
+        <v>750.1581694722574</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="n">
-        <v>697.1681889178001</v>
+        <v>701.5862518861411</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="n">
-        <v>677.2388692014886</v>
+        <v>699.1792069248959</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="n">
-        <v>610.5180021422427</v>
+        <v>659.1442977427846</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="n">
-        <v>604.166519675573</v>
+        <v>596.5082683848095</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="n">
-        <v>594.8701396699789</v>
+        <v>584.2270483155403</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="n">
-        <v>644.15651606555</v>
+        <v>583.9973771047084</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="n">
-        <v>627.6900466005202</v>
+        <v>621.459050868026</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="n">
-        <v>630.5491568961372</v>
+        <v>632.724376307749</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="n">
-        <v>576.457050359636</v>
+        <v>665.1733738457608</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="n">
-        <v>553.30133762331</v>
+        <v>604.0676401460701</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="n">
-        <v>571.227954504792</v>
+        <v>584.9298179035998</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="n">
-        <v>552.2017406605642</v>
+        <v>569.0068721168871</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="n">
-        <v>512.8874335814544</v>
+        <v>505.6748954865498</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="n">
-        <v>538.126230163499</v>
+        <v>484.9923750909682</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="n">
-        <v>587.4261158740808</v>
+        <v>529.1154511463674</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="n">
-        <v>581.4915301578196</v>
+        <v>578.8879952166894</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="n">
-        <v>532.718725703802</v>
+        <v>571.0711703329991</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="n">
-        <v>514.7235809440645</v>
+        <v>527.6694039973506</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="n">
-        <v>518.0393925585633</v>
+        <v>513.9457924757664</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="n">
-        <v>498.7010937146863</v>
+        <v>515.5942523072383</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="n">
-        <v>544.2486229248686</v>
+        <v>487.9790061531253</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="n">
-        <v>606.6076192024354</v>
+        <v>528.4418748221071</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="n">
-        <v>614.6407245782939</v>
+        <v>601.6966981057408</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="n">
-        <v>612.5479039669983</v>
+        <v>615.3271832590121</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="n">
-        <v>579.5276106551341</v>
+        <v>606.4348280251579</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="n">
-        <v>562.3375582109134</v>
+        <v>576.1457265240324</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="n">
-        <v>587.1140508428709</v>
+        <v>568.4849453570848</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="n">
-        <v>561.7829663349312</v>
+        <v>586.9621370893299</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="n">
-        <v>480.7967798107313</v>
+        <v>565.1276957323716</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="n">
-        <v>484.3987231694484</v>
+        <v>508.3724867601518</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="n">
-        <v>484.3721424777243</v>
+        <v>492.7524002256405</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="n">
-        <v>486.1713257602389</v>
+        <v>473.6753713572455</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="n">
-        <v>460.4897566040904</v>
+        <v>494.9897073816203</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="n">
-        <v>469.7456406124161</v>
+        <v>446.1360873224578</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="n">
-        <v>498.5462119276178</v>
+        <v>438.7433000642602</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="n">
-        <v>552.6566968488851</v>
+        <v>475.4819834382147</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="n">
-        <v>663.9902965952444</v>
+        <v>554.9350691601944</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="n">
-        <v>688.6244114268436</v>
+        <v>654.3222411931993</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="n">
-        <v>615.0114664498574</v>
+        <v>698.4885596191646</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="n">
-        <v>599.4510006271696</v>
+        <v>621.6292578180571</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="n">
-        <v>602.6084865221151</v>
+        <v>600.2192518209597</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="n">
-        <v>616.8796728587438</v>
+        <v>610.9090424240264</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="n">
-        <v>618.7952951454179</v>
+        <v>606.3172009316418</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="n">
-        <v>621.0235373567059</v>
+        <v>592.3886505687506</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="n">
-        <v>605.1493967619876</v>
+        <v>614.2940482561414</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="n">
-        <v>553.9121139686074</v>
+        <v>641.2355552958786</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="n">
-        <v>516.3795061105816</v>
+        <v>579.6270314995411</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="n">
-        <v>533.2481964357214</v>
+        <v>497.8043610345253</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="n">
-        <v>514.9142771903996</v>
+        <v>528.5814084616618</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="n">
-        <v>511.7956997224837</v>
+        <v>544.6857777702121</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="n">
-        <v>505.2410579398554</v>
+        <v>525.8909806110807</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="n">
-        <v>525.5717002546589</v>
+        <v>500.4312600922844</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="n">
-        <v>543.9548347715117</v>
+        <v>497.4256803142225</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="n">
-        <v>583.8669164351984</v>
+        <v>518.1779306844021</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="n">
-        <v>629.7289222215738</v>
+        <v>567.4758342798611</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="n">
-        <v>671.287522397563</v>
+        <v>609.1903211094802</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="n">
-        <v>647.3434043233226</v>
+        <v>670.0534945692027</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="n">
-        <v>645.5546253296234</v>
+        <v>687.7530656720978</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="n">
-        <v>632.3166844634045</v>
+        <v>669.7908861919757</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="n">
-        <v>623.0699748620339</v>
+        <v>648.2084996053459</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="n">
-        <v>577.4729409741326</v>
+        <v>626.5805053004385</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="n">
-        <v>553.8462853459976</v>
+        <v>552.1824223172302</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="n">
-        <v>552.6592335965574</v>
+        <v>519.7610678296201</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="n">
-        <v>558.1713171486911</v>
+        <v>507.5831126587218</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="n">
-        <v>564.5939848156161</v>
+        <v>539.1939414836315</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="n">
-        <v>559.2903572995738</v>
+        <v>554.6994541048775</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="n">
-        <v>560.586101102956</v>
+        <v>565.6739687335914</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="n">
-        <v>530.5559338448802</v>
+        <v>581.1098108830492</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="n">
-        <v>532.4602814899038</v>
+        <v>580.8651620143621</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="n">
-        <v>546.6425919142637</v>
+        <v>582.8334585993957</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="n">
-        <v>545.2530858552223</v>
+        <v>562.1825253217594</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="n">
-        <v>591.4380820165377</v>
+        <v>522.2644749086385</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="n">
-        <v>621.2435439269086</v>
+        <v>525.9913642309186</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="n">
-        <v>672.6743331080911</v>
+        <v>579.2739109920149</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="n">
-        <v>716.5221027482005</v>
+        <v>631.3974568270169</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" t="n">
-        <v>638.1430247338642</v>
+        <v>703.4794073554735</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="n">
-        <v>617.5072768961059</v>
+        <v>699.7601962729902</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" t="n">
-        <v>523.1414813379729</v>
+        <v>637.0534980684681</v>
       </c>
     </row>
     <row r="367">
       <c r="A367" t="n">
-        <v>474.7661867360193</v>
+        <v>554.7203897933457</v>
       </c>
     </row>
     <row r="368">
       <c r="A368" t="n">
-        <v>485.5187969029942</v>
+        <v>473.2507492441869</v>
       </c>
     </row>
     <row r="369">
       <c r="A369" t="n">
-        <v>559.3896375627878</v>
+        <v>451.085281151677</v>
       </c>
     </row>
     <row r="370">
       <c r="A370" t="n">
-        <v>599.7248598054625</v>
+        <v>502.0697640282492</v>
       </c>
     </row>
     <row r="371">
       <c r="A371" t="n">
-        <v>587.4332260208348</v>
+        <v>548.9738929436214</v>
       </c>
     </row>
     <row r="372">
       <c r="A372" t="n">
-        <v>666.2899144898518</v>
+        <v>571.6566527675582</v>
       </c>
     </row>
     <row r="373">
       <c r="A373" t="n">
-        <v>707.9931734363925</v>
+        <v>607.9539834327363</v>
       </c>
     </row>
     <row r="374">
       <c r="A374" t="n">
-        <v>736.4397937656406</v>
+        <v>722.5738123569272</v>
       </c>
     </row>
     <row r="375">
       <c r="A375" t="n">
-        <v>727.1287496839705</v>
+        <v>746.10639432413</v>
       </c>
     </row>
     <row r="376">
       <c r="A376" t="n">
-        <v>679.8324802693116</v>
+        <v>769.305259544808</v>
       </c>
     </row>
     <row r="377">
       <c r="A377" t="n">
-        <v>726.1307519422928</v>
+        <v>718.0952224072144</v>
       </c>
     </row>
     <row r="378">
       <c r="A378" t="n">
-        <v>765.8805468626326</v>
+        <v>688.6341270213734</v>
       </c>
     </row>
     <row r="379">
       <c r="A379" t="n">
-        <v>722.552300798128</v>
+        <v>729.2525234256004</v>
       </c>
     </row>
     <row r="380">
       <c r="A380" t="n">
-        <v>672.4670414702985</v>
+        <v>720.5469962479469</v>
       </c>
     </row>
     <row r="381">
       <c r="A381" t="n">
-        <v>617.0927730046287</v>
+        <v>729.590215186505</v>
       </c>
     </row>
     <row r="382">
       <c r="A382" t="n">
-        <v>593.0107840849246</v>
+        <v>659.7954311763772</v>
       </c>
     </row>
     <row r="383">
       <c r="A383" t="n">
-        <v>564.9047182744198</v>
+        <v>613.2921617814588</v>
       </c>
     </row>
     <row r="384">
       <c r="A384" t="n">
-        <v>543.9650379039733</v>
+        <v>607.065838770211</v>
       </c>
     </row>
     <row r="385">
       <c r="A385" t="n">
-        <v>537.8950377375133</v>
+        <v>566.5770442235782</v>
       </c>
     </row>
     <row r="386">
       <c r="A386" t="n">
-        <v>555.4331206492691</v>
+        <v>527.2422066948934</v>
       </c>
     </row>
     <row r="387">
       <c r="A387" t="n">
-        <v>612.5120808138433</v>
+        <v>545.8334176468043</v>
       </c>
     </row>
     <row r="388">
       <c r="A388" t="n">
-        <v>651.9815600363756</v>
+        <v>588.3587537351502</v>
       </c>
     </row>
     <row r="389">
       <c r="A389" t="n">
-        <v>636.1745564854573</v>
+        <v>601.8950480446108</v>
       </c>
     </row>
     <row r="390">
       <c r="A390" t="n">
-        <v>614.9819878525307</v>
+        <v>670.3811607167438</v>
       </c>
     </row>
     <row r="391">
       <c r="A391" t="n">
-        <v>677.1067742646721</v>
+        <v>635.4783427779012</v>
       </c>
     </row>
     <row r="392">
       <c r="A392" t="n">
-        <v>724.1235185239816</v>
+        <v>632.9796172172735</v>
       </c>
     </row>
     <row r="393">
       <c r="A393" t="n">
-        <v>716.4347500099382</v>
+        <v>676.465800013176</v>
       </c>
     </row>
     <row r="394">
       <c r="A394" t="n">
-        <v>707.6058500680631</v>
+        <v>731.7880469297791</v>
       </c>
     </row>
     <row r="395">
       <c r="A395" t="n">
-        <v>664.9792800962757</v>
+        <v>732.2129332960969</v>
       </c>
     </row>
     <row r="396">
       <c r="A396" t="n">
-        <v>594.6055618441051</v>
+        <v>678.7687686382355</v>
       </c>
     </row>
     <row r="397">
       <c r="A397" t="n">
-        <v>572.5821667796822</v>
+        <v>619.4399071206362</v>
       </c>
     </row>
     <row r="398">
       <c r="A398" t="n">
-        <v>561.168687111433</v>
+        <v>570.7431512440735</v>
       </c>
     </row>
     <row r="399">
       <c r="A399" t="n">
-        <v>561.2431912630313</v>
+        <v>579.1536249343494</v>
       </c>
     </row>
     <row r="400">
       <c r="A400" t="n">
-        <v>571.5423749904005</v>
+        <v>553.1958291896615</v>
       </c>
     </row>
     <row r="401">
       <c r="A401" t="n">
-        <v>647.7656091956305</v>
+        <v>547.0867267720507</v>
       </c>
     </row>
     <row r="402">
       <c r="A402" t="n">
-        <v>668.2273498506106</v>
+        <v>617.3336509697833</v>
       </c>
     </row>
     <row r="403">
       <c r="A403" t="n">
-        <v>683.6756179353642</v>
+        <v>682.7459413822226</v>
       </c>
     </row>
     <row r="404">
       <c r="A404" t="n">
-        <v>637.3627092748109</v>
+        <v>665.4539379075857</v>
       </c>
     </row>
     <row r="405">
       <c r="A405" t="n">
-        <v>632.2141298763313</v>
+        <v>676.1930471658388</v>
       </c>
     </row>
     <row r="406">
       <c r="A406" t="n">
-        <v>631.1708875931572</v>
+        <v>628.4019359693502</v>
       </c>
     </row>
     <row r="407">
       <c r="A407" t="n">
-        <v>657.2760161211875</v>
+        <v>613.1202584066386</v>
       </c>
     </row>
     <row r="408">
       <c r="A408" t="n">
-        <v>648.4175138189983</v>
+        <v>651.9717937819678</v>
       </c>
     </row>
     <row r="409">
       <c r="A409" t="n">
-        <v>621.0310459040613</v>
+        <v>678.8755921442089</v>
       </c>
     </row>
     <row r="410">
       <c r="A410" t="n">
-        <v>633.6728704234815</v>
+        <v>645.7341809797015</v>
       </c>
     </row>
     <row r="411">
       <c r="A411" t="n">
-        <v>670.1339344492965</v>
+        <v>617.2629748250245</v>
       </c>
     </row>
     <row r="412">
       <c r="A412" t="n">
-        <v>655.6484792138804</v>
+        <v>661.4916014939922</v>
       </c>
     </row>
     <row r="413">
       <c r="A413" t="n">
-        <v>619.6580677870429</v>
+        <v>679.9165599180128</v>
       </c>
     </row>
     <row r="414">
       <c r="A414" t="n">
-        <v>611.626518888329</v>
+        <v>639.9470766717172</v>
       </c>
     </row>
     <row r="415">
       <c r="A415" t="n">
-        <v>631.1563553528003</v>
+        <v>626.3573406332057</v>
       </c>
     </row>
     <row r="416">
       <c r="A416" t="n">
-        <v>641.0578097548409</v>
+        <v>606.3990692993571</v>
       </c>
     </row>
     <row r="417">
       <c r="A417" t="n">
-        <v>569.1051513046546</v>
+        <v>638.614073140559</v>
       </c>
     </row>
     <row r="418">
       <c r="A418" t="n">
-        <v>559.3301768398646</v>
+        <v>645.8036051178055</v>
       </c>
     </row>
     <row r="419">
       <c r="A419" t="n">
-        <v>601.8391044322016</v>
+        <v>547.826502225746</v>
       </c>
     </row>
     <row r="420">
       <c r="A420" t="n">
-        <v>615.7935162790409</v>
+        <v>538.8483619602198</v>
       </c>
     </row>
     <row r="421">
       <c r="A421" t="n">
-        <v>618.1539242292615</v>
+        <v>565.1648104841343</v>
       </c>
     </row>
     <row r="422">
       <c r="A422" t="n">
-        <v>753.5632003624073</v>
+        <v>588.2840888436931</v>
       </c>
     </row>
     <row r="423">
       <c r="A423" t="n">
-        <v>801.1134539636373</v>
+        <v>641.9721762113682</v>
       </c>
     </row>
     <row r="424">
       <c r="A424" t="n">
-        <v>848.7354945350489</v>
+        <v>766.2655384823438</v>
       </c>
     </row>
     <row r="425">
       <c r="A425" t="n">
-        <v>784.9224340761225</v>
+        <v>831.7218981472934</v>
       </c>
     </row>
     <row r="426">
       <c r="A426" t="n">
-        <v>764.8887560387152</v>
+        <v>845.0957091592386</v>
       </c>
     </row>
     <row r="427">
       <c r="A427" t="n">
-        <v>648.9232234467295</v>
+        <v>800.3957949539426</v>
       </c>
     </row>
     <row r="428">
       <c r="A428" t="n">
-        <v>601.6205189479251</v>
+        <v>750.6376699698194</v>
       </c>
     </row>
     <row r="429">
       <c r="A429" t="n">
-        <v>583.724499103198</v>
+        <v>642.8824767727406</v>
       </c>
     </row>
     <row r="430">
       <c r="A430" t="n">
-        <v>577.1805848515328</v>
+        <v>619.0264623742223</v>
       </c>
     </row>
     <row r="431">
       <c r="A431" t="n">
-        <v>537.9506349068492</v>
+        <v>591.90016417881</v>
       </c>
     </row>
     <row r="432">
       <c r="A432" t="n">
-        <v>550.9823344449387</v>
+        <v>551.2704042534438</v>
       </c>
     </row>
     <row r="433">
       <c r="A433" t="n">
-        <v>608.0005750823716</v>
+        <v>519.1902367763532</v>
       </c>
     </row>
     <row r="434">
       <c r="A434" t="n">
-        <v>649.4887587017502</v>
+        <v>530.0219155001287</v>
       </c>
     </row>
     <row r="435">
       <c r="A435" t="n">
-        <v>711.0786665276123</v>
+        <v>580.7487613316766</v>
       </c>
     </row>
     <row r="436">
       <c r="A436" t="n">
-        <v>787.2856332265883</v>
+        <v>641.3058527488715</v>
       </c>
     </row>
     <row r="437">
       <c r="A437" t="n">
-        <v>737.9443285182674</v>
+        <v>709.0554738721266</v>
       </c>
     </row>
     <row r="438">
       <c r="A438" t="n">
-        <v>675.4506662925337</v>
+        <v>801.3075373761467</v>
       </c>
     </row>
     <row r="439">
       <c r="A439" t="n">
-        <v>662.6040752256586</v>
+        <v>774.351715615353</v>
       </c>
     </row>
     <row r="440">
       <c r="A440" t="n">
-        <v>623.2327282132246</v>
+        <v>676.341550713687</v>
       </c>
     </row>
     <row r="441">
       <c r="A441" t="n">
-        <v>552.1637171066232</v>
+        <v>655.1827123391263</v>
       </c>
     </row>
     <row r="442">
       <c r="A442" t="n">
-        <v>525.3784251218576</v>
+        <v>618.0259374052071</v>
       </c>
     </row>
     <row r="443">
       <c r="A443" t="n">
-        <v>571.5582593313115</v>
+        <v>557.9636752960369</v>
       </c>
     </row>
     <row r="444">
       <c r="A444" t="n">
-        <v>571.8606133535786</v>
+        <v>522.5531741418195</v>
       </c>
     </row>
     <row r="445">
       <c r="A445" t="n">
-        <v>567.2330273532111</v>
+        <v>559.627460828267</v>
       </c>
     </row>
     <row r="446">
       <c r="A446" t="n">
-        <v>607.4981775106494</v>
+        <v>573.9804411136333</v>
       </c>
     </row>
     <row r="447">
       <c r="A447" t="n">
-        <v>616.9610833699153</v>
+        <v>569.467657549751</v>
       </c>
     </row>
     <row r="448">
       <c r="A448" t="n">
-        <v>621.8163046794416</v>
+        <v>599.9459349557128</v>
       </c>
     </row>
     <row r="449">
       <c r="A449" t="n">
-        <v>618.6224208219073</v>
+        <v>618.2073242120509</v>
       </c>
     </row>
     <row r="450">
       <c r="A450" t="n">
-        <v>584.0730258464077</v>
+        <v>652.1015126897964</v>
       </c>
     </row>
     <row r="451">
       <c r="A451" t="n">
-        <v>571.5116723525284</v>
+        <v>635.6168943407283</v>
       </c>
     </row>
     <row r="452">
       <c r="A452" t="n">
-        <v>505.6936211884135</v>
+        <v>576.0273963596774</v>
       </c>
     </row>
     <row r="453">
       <c r="A453" t="n">
-        <v>501.8133649872993</v>
+        <v>566.3731420480076</v>
       </c>
     </row>
     <row r="454">
       <c r="A454" t="n">
-        <v>514.2864507508875</v>
+        <v>504.0726763095904</v>
       </c>
     </row>
     <row r="455">
       <c r="A455" t="n">
-        <v>553.9344181626689</v>
+        <v>499.6258415544048</v>
       </c>
     </row>
     <row r="456">
       <c r="A456" t="n">
-        <v>551.3973923173126</v>
+        <v>518.3977004750204</v>
       </c>
     </row>
     <row r="457">
       <c r="A457" t="n">
-        <v>531.941508095656</v>
+        <v>551.219196288514</v>
       </c>
     </row>
     <row r="458">
       <c r="A458" t="n">
-        <v>523.1319704162161</v>
+        <v>541.8100271365347</v>
       </c>
     </row>
     <row r="459">
       <c r="A459" t="n">
-        <v>535.4891581000629</v>
+        <v>525.9990598672744</v>
       </c>
     </row>
     <row r="460">
       <c r="A460" t="n">
-        <v>570.8527494793998</v>
+        <v>541.9020915244346</v>
       </c>
     </row>
     <row r="461">
       <c r="A461" t="n">
-        <v>571.2923238606322</v>
+        <v>550.7873989982386</v>
       </c>
     </row>
     <row r="462">
       <c r="A462" t="n">
-        <v>623.0167179714385</v>
+        <v>572.9974987128799</v>
       </c>
     </row>
     <row r="463">
       <c r="A463" t="n">
-        <v>733.191154710255</v>
+        <v>558.443572653232</v>
       </c>
     </row>
     <row r="464">
       <c r="A464" t="n">
-        <v>766.2093791082611</v>
+        <v>606.1665467888702</v>
       </c>
     </row>
     <row r="465">
       <c r="A465" t="n">
-        <v>722.9856479312389</v>
+        <v>722.6412658549748</v>
       </c>
     </row>
     <row r="466">
       <c r="A466" t="n">
-        <v>631.7796143865166</v>
+        <v>755.9068969313216</v>
       </c>
     </row>
     <row r="467">
       <c r="A467" t="n">
-        <v>553.4970539984556</v>
+        <v>721.1695115348107</v>
       </c>
     </row>
     <row r="468">
       <c r="A468" t="n">
-        <v>557.0229335125418</v>
+        <v>641.7313984358088</v>
       </c>
     </row>
     <row r="469">
       <c r="A469" t="n">
-        <v>634.4624638605865</v>
+        <v>587.1907709498601</v>
       </c>
     </row>
     <row r="470">
       <c r="A470" t="n">
-        <v>666.0005027056854</v>
+        <v>587.9102077845459</v>
       </c>
     </row>
     <row r="471">
       <c r="A471" t="n">
-        <v>664.5899511244124</v>
+        <v>636.8757745470361</v>
       </c>
     </row>
     <row r="472">
       <c r="A472" t="n">
-        <v>615.4222314505091</v>
+        <v>674.1714565234247</v>
       </c>
     </row>
     <row r="473">
       <c r="A473" t="n">
-        <v>561.7038300891295</v>
+        <v>653.7376125712058</v>
       </c>
     </row>
     <row r="474">
       <c r="A474" t="n">
-        <v>531.116225617609</v>
+        <v>607.529789643138</v>
       </c>
     </row>
     <row r="475">
       <c r="A475" t="n">
-        <v>557.3527169453314</v>
+        <v>553.3500985712863</v>
       </c>
     </row>
     <row r="476">
       <c r="A476" t="n">
-        <v>585.9297701171613</v>
+        <v>523.6971438931164</v>
       </c>
     </row>
     <row r="477">
       <c r="A477" t="n">
-        <v>623.5198646742788</v>
+        <v>553.2629934091347</v>
       </c>
     </row>
     <row r="478">
       <c r="A478" t="n">
-        <v>685.1232398730644</v>
+        <v>590.8474551482072</v>
       </c>
     </row>
     <row r="479">
       <c r="A479" t="n">
-        <v>624.5511737276956</v>
+        <v>612.754225032802</v>
       </c>
     </row>
     <row r="480">
       <c r="A480" t="n">
-        <v>608.8679347539596</v>
+        <v>650.4980227178407</v>
       </c>
     </row>
     <row r="481">
       <c r="A481" t="n">
-        <v>635.6663839112571</v>
+        <v>600.0376177515818</v>
       </c>
     </row>
     <row r="482">
       <c r="A482" t="n">
-        <v>685.2919514233236</v>
+        <v>593.2183357912209</v>
       </c>
     </row>
     <row r="483">
       <c r="A483" t="n">
-        <v>695.4925509795657</v>
+        <v>628.44331461406</v>
       </c>
     </row>
     <row r="484">
       <c r="A484" t="n">
-        <v>694.8736348699072</v>
+        <v>725.6100175177949</v>
       </c>
     </row>
     <row r="485">
       <c r="A485" t="n">
-        <v>602.2436334405938</v>
+        <v>735.494204302654</v>
       </c>
     </row>
     <row r="486">
       <c r="A486" t="n">
-        <v>608.0786648996082</v>
+        <v>719.3909201320707</v>
       </c>
     </row>
     <row r="487">
       <c r="A487" t="n">
-        <v>626.4151365618886</v>
+        <v>599.1526074079161</v>
       </c>
     </row>
     <row r="488">
       <c r="A488" t="n">
-        <v>631.3546458761152</v>
+        <v>585.9533619164381</v>
       </c>
     </row>
     <row r="489">
       <c r="A489" t="n">
-        <v>611.0582886758493</v>
+        <v>580.9228203389694</v>
       </c>
     </row>
     <row r="490">
       <c r="A490" t="n">
-        <v>559.1411298623825</v>
+        <v>582.8893917081928</v>
       </c>
     </row>
     <row r="491">
       <c r="A491" t="n">
-        <v>593.4123854844984</v>
+        <v>614.9666172386787</v>
       </c>
     </row>
     <row r="492">
       <c r="A492" t="n">
-        <v>613.9991139958738</v>
+        <v>590.1755353725662</v>
       </c>
     </row>
     <row r="493">
       <c r="A493" t="n">
-        <v>614.4650491675634</v>
+        <v>594.0481165125107</v>
       </c>
     </row>
     <row r="494">
       <c r="A494" t="n">
-        <v>570.496627347552</v>
+        <v>638.2709941225926</v>
       </c>
     </row>
     <row r="495">
       <c r="A495" t="n">
-        <v>548.1295174310503</v>
+        <v>624.9556099004963</v>
       </c>
     </row>
     <row r="496">
       <c r="A496" t="n">
-        <v>535.664772570783</v>
+        <v>568.2825216843526</v>
       </c>
     </row>
     <row r="497">
       <c r="A497" t="n">
-        <v>535.6851957587878</v>
+        <v>523.9822350561099</v>
       </c>
     </row>
     <row r="498">
       <c r="A498" t="n">
-        <v>544.2918067028018</v>
+        <v>526.9210827276538</v>
       </c>
     </row>
     <row r="499">
       <c r="A499" t="n">
-        <v>582.9175722265632</v>
+        <v>526.6480524488202</v>
       </c>
     </row>
     <row r="500">
       <c r="A500" t="n">
-        <v>648.1702788769894</v>
+        <v>535.9605167911354</v>
       </c>
     </row>
     <row r="501">
       <c r="A501" t="n">
-        <v>679.6313449127069</v>
+        <v>552.3536129907711</v>
       </c>
     </row>
     <row r="502">
       <c r="A502" t="n">
-        <v>732.6699358127371</v>
+        <v>646.7163045790016</v>
       </c>
     </row>
     <row r="503">
       <c r="A503" t="n">
-        <v>758.5238803088714</v>
+        <v>658.376459428041</v>
       </c>
     </row>
     <row r="504">
       <c r="A504" t="n">
-        <v>824.6358299683152</v>
+        <v>745.5570279273047</v>
       </c>
     </row>
     <row r="505">
       <c r="A505" t="n">
-        <v>825.0721008795949</v>
+        <v>787.92246318244</v>
       </c>
     </row>
     <row r="506">
       <c r="A506" t="n">
-        <v>730.3612717936971</v>
+        <v>841.7228307454252</v>
       </c>
     </row>
     <row r="507">
       <c r="A507" t="n">
-        <v>667.3444855755406</v>
+        <v>843.9872281890075</v>
       </c>
     </row>
     <row r="508">
       <c r="A508" t="n">
-        <v>609.5336199171584</v>
+        <v>724.7777504878172</v>
       </c>
     </row>
     <row r="509">
       <c r="A509" t="n">
-        <v>630.7016788821898</v>
+        <v>662.8174736142682</v>
       </c>
     </row>
     <row r="510">
       <c r="A510" t="n">
-        <v>642.956669347825</v>
+        <v>637.12947989643</v>
       </c>
     </row>
     <row r="511">
       <c r="A511" t="n">
-        <v>657.9090546238149</v>
+        <v>612.4989263978478</v>
       </c>
     </row>
     <row r="512">
       <c r="A512" t="n">
-        <v>691.6763141618958</v>
+        <v>644.279041057132</v>
       </c>
     </row>
     <row r="513">
       <c r="A513" t="n">
-        <v>701.9185101275411</v>
+        <v>664.0731589183702</v>
       </c>
     </row>
     <row r="514">
       <c r="A514" t="n">
-        <v>727.9552896910104</v>
+        <v>671.5796246613195</v>
       </c>
     </row>
     <row r="515">
       <c r="A515" t="n">
-        <v>697.7439762048903</v>
+        <v>711.2462135482929</v>
       </c>
     </row>
     <row r="516">
       <c r="A516" t="n">
-        <v>699.2918872418272</v>
+        <v>706.4226362090835</v>
       </c>
     </row>
     <row r="517">
       <c r="A517" t="n">
-        <v>636.4053679807284</v>
+        <v>676.2735006685716</v>
       </c>
     </row>
     <row r="518">
       <c r="A518" t="n">
-        <v>611.9534994241462</v>
+        <v>701.7153523055981</v>
       </c>
     </row>
     <row r="519">
       <c r="A519" t="n">
-        <v>625.1710734557037</v>
+        <v>663.8204324572143</v>
       </c>
     </row>
     <row r="520">
       <c r="A520" t="n">
-        <v>651.7101990810943</v>
+        <v>636.2098564338794</v>
       </c>
     </row>
     <row r="521">
       <c r="A521" t="n">
-        <v>659.396862018184</v>
+        <v>627.612744827843</v>
       </c>
     </row>
     <row r="522">
       <c r="A522" t="n">
-        <v>680.4282780140625</v>
+        <v>678.5806432483241</v>
       </c>
     </row>
     <row r="523">
       <c r="A523" t="n">
-        <v>745.0767554834101</v>
+        <v>664.0975896188479</v>
       </c>
     </row>
     <row r="524">
       <c r="A524" t="n">
-        <v>781.5323744400189</v>
+        <v>657.8852610699073</v>
       </c>
     </row>
     <row r="525">
       <c r="A525" t="n">
-        <v>785.8636678904531</v>
+        <v>685.6003681480161</v>
       </c>
     </row>
     <row r="526">
       <c r="A526" t="n">
-        <v>744.3810753872526</v>
+        <v>748.9844036321074</v>
       </c>
     </row>
     <row r="527">
       <c r="A527" t="n">
-        <v>688.0159451050645</v>
+        <v>778.8982863393699</v>
       </c>
     </row>
     <row r="528">
       <c r="A528" t="n">
-        <v>668.8395428482181</v>
+        <v>776.7729873486928</v>
       </c>
     </row>
     <row r="529">
       <c r="A529" t="n">
-        <v>668.1318980919855</v>
+        <v>738.496907012518</v>
       </c>
     </row>
     <row r="530">
       <c r="A530" t="n">
-        <v>639.4034143723957</v>
+        <v>692.5626064642643</v>
       </c>
     </row>
     <row r="531">
       <c r="A531" t="n">
-        <v>597.2233711818262</v>
+        <v>672.843951640516</v>
       </c>
     </row>
     <row r="532">
       <c r="A532" t="n">
-        <v>536.9495852251021</v>
+        <v>647.0809057353222</v>
       </c>
     </row>
     <row r="533">
       <c r="A533" t="n">
-        <v>560.0655966404133</v>
+        <v>614.9786687073515</v>
       </c>
     </row>
     <row r="534">
       <c r="A534" t="n">
-        <v>600.5171650350007</v>
+        <v>533.6694215026796</v>
       </c>
     </row>
     <row r="535">
       <c r="A535" t="n">
-        <v>627.8273495514668</v>
+        <v>523.3727460138198</v>
       </c>
     </row>
     <row r="536">
       <c r="A536" t="n">
-        <v>627.6710313851481</v>
+        <v>571.6779002107728</v>
       </c>
     </row>
     <row r="537">
       <c r="A537" t="n">
-        <v>620.7903897885672</v>
+        <v>605.9297763063114</v>
       </c>
     </row>
     <row r="538">
       <c r="A538" t="n">
-        <v>650.7769636838248</v>
+        <v>620.2163494028241</v>
       </c>
     </row>
     <row r="539">
       <c r="A539" t="n">
-        <v>669.483808117036</v>
+        <v>638.2871676298691</v>
       </c>
     </row>
     <row r="540">
       <c r="A540" t="n">
-        <v>642.1393894665925</v>
+        <v>668.904386464078</v>
       </c>
     </row>
     <row r="541">
       <c r="A541" t="n">
-        <v>604.5460644235163</v>
+        <v>673.6471490624467</v>
       </c>
     </row>
     <row r="542">
       <c r="A542" t="n">
-        <v>566.888714376546</v>
+        <v>666.0606901108395</v>
       </c>
     </row>
     <row r="543">
       <c r="A543" t="n">
-        <v>591.5681633252348</v>
+        <v>608.8109448379555</v>
       </c>
     </row>
     <row r="544">
       <c r="A544" t="n">
-        <v>617.3074944051109</v>
+        <v>564.294180701836</v>
       </c>
     </row>
     <row r="545">
       <c r="A545" t="n">
-        <v>587.6437370417875</v>
+        <v>569.7484679195099</v>
       </c>
     </row>
     <row r="546">
       <c r="A546" t="n">
-        <v>633.4477011268405</v>
+        <v>611.0342708245184</v>
       </c>
     </row>
     <row r="547">
       <c r="A547" t="n">
-        <v>606.7327559208593</v>
+        <v>636.1150188139959</v>
       </c>
     </row>
     <row r="548">
       <c r="A548" t="n">
-        <v>620.9358675366161</v>
+        <v>628.5848853966627</v>
       </c>
     </row>
     <row r="549">
       <c r="A549" t="n">
-        <v>649.8252676028642</v>
+        <v>629.2035448585125</v>
       </c>
     </row>
     <row r="550">
       <c r="A550" t="n">
-        <v>657.4313018919042</v>
+        <v>619.4902182832607</v>
       </c>
     </row>
     <row r="551">
       <c r="A551" t="n">
-        <v>587.3965502055967</v>
+        <v>623.9842045956721</v>
       </c>
     </row>
     <row r="552">
       <c r="A552" t="n">
-        <v>553.9784581200138</v>
+        <v>634.0387078045637</v>
       </c>
     </row>
     <row r="553">
       <c r="A553" t="n">
-        <v>530.6758181669124</v>
+        <v>605.9392833561219</v>
       </c>
     </row>
     <row r="554">
       <c r="A554" t="n">
-        <v>553.2567520904763</v>
+        <v>552.5638918239224</v>
       </c>
     </row>
     <row r="555">
       <c r="A555" t="n">
-        <v>638.8979137558977</v>
+        <v>521.9881766820436</v>
       </c>
     </row>
     <row r="556">
       <c r="A556" t="n">
-        <v>676.9879935982317</v>
+        <v>538.0008320596517</v>
       </c>
     </row>
     <row r="557">
       <c r="A557" t="n">
-        <v>679.8396216785818</v>
+        <v>613.8306289864772</v>
       </c>
     </row>
     <row r="558">
       <c r="A558" t="n">
-        <v>717.3497138403491</v>
+        <v>698.3089206912041</v>
       </c>
     </row>
     <row r="559">
       <c r="A559" t="n">
-        <v>707.5996788257157</v>
+        <v>682.9125222569132</v>
       </c>
     </row>
     <row r="560">
       <c r="A560" t="n">
-        <v>741.5873388299588</v>
+        <v>716.7441365890568</v>
       </c>
     </row>
     <row r="561">
       <c r="A561" t="n">
-        <v>670.8563510961199</v>
+        <v>696.1805937716008</v>
       </c>
     </row>
     <row r="562">
       <c r="A562" t="n">
-        <v>593.4115439371794</v>
+        <v>734.8314824149043</v>
       </c>
     </row>
     <row r="563">
       <c r="A563" t="n">
-        <v>580.8726702002787</v>
+        <v>732.3729706961331</v>
       </c>
     </row>
     <row r="564">
       <c r="A564" t="n">
-        <v>593.3132618791888</v>
+        <v>631.9562173715667</v>
       </c>
     </row>
     <row r="565">
       <c r="A565" t="n">
-        <v>597.8080103848811</v>
+        <v>576.8973659877474</v>
       </c>
     </row>
     <row r="566">
       <c r="A566" t="n">
-        <v>593.2497691712797</v>
+        <v>620.5320482148409</v>
       </c>
     </row>
     <row r="567">
       <c r="A567" t="n">
-        <v>637.5283646346475</v>
+        <v>640.6168446824267</v>
       </c>
     </row>
     <row r="568">
       <c r="A568" t="n">
-        <v>714.1209471233196</v>
+        <v>607.5167820410456</v>
       </c>
     </row>
     <row r="569">
       <c r="A569" t="n">
-        <v>733.8710408677116</v>
+        <v>604.3011416948616</v>
       </c>
     </row>
     <row r="570">
       <c r="A570" t="n">
-        <v>693.7297096001771</v>
+        <v>644.6536676241408</v>
       </c>
     </row>
     <row r="571">
       <c r="A571" t="n">
-        <v>678.8916387745871</v>
+        <v>706.1569268518042</v>
       </c>
     </row>
     <row r="572">
       <c r="A572" t="n">
-        <v>685.9632862627905</v>
+        <v>679.0978237251579</v>
       </c>
     </row>
     <row r="573">
       <c r="A573" t="n">
-        <v>723.0836059351304</v>
+        <v>669.6505824353949</v>
       </c>
     </row>
     <row r="574">
       <c r="A574" t="n">
-        <v>717.3125268575973</v>
+        <v>681.7116657542215</v>
       </c>
     </row>
     <row r="575">
       <c r="A575" t="n">
-        <v>701.4576601343379</v>
+        <v>712.9224712041378</v>
       </c>
     </row>
     <row r="576">
       <c r="A576" t="n">
-        <v>680.5456287667084</v>
+        <v>747.8616611526832</v>
       </c>
     </row>
     <row r="577">
       <c r="A577" t="n">
-        <v>687.466488196435</v>
+        <v>719.5139449565318</v>
       </c>
     </row>
     <row r="578">
       <c r="A578" t="n">
-        <v>656.2241342343782</v>
+        <v>697.5742012718911</v>
       </c>
     </row>
     <row r="579">
       <c r="A579" t="n">
-        <v>610.3277407660244</v>
+        <v>678.3803938120627</v>
       </c>
     </row>
     <row r="580">
       <c r="A580" t="n">
-        <v>619.921272497777</v>
+        <v>659.6151086009741</v>
       </c>
     </row>
     <row r="581">
       <c r="A581" t="n">
-        <v>661.7323278417757</v>
+        <v>621.750344969314</v>
       </c>
     </row>
     <row r="582">
       <c r="A582" t="n">
-        <v>763.8306673719626</v>
+        <v>635.0719102514972</v>
       </c>
     </row>
     <row r="583">
       <c r="A583" t="n">
-        <v>863.9221384639768</v>
+        <v>664.1041887363599</v>
       </c>
     </row>
     <row r="584">
       <c r="A584" t="n">
-        <v>901.6698285562939</v>
+        <v>752.9362316743686</v>
       </c>
     </row>
     <row r="585">
       <c r="A585" t="n">
-        <v>784.0194436155912</v>
+        <v>848.8981911551718</v>
       </c>
     </row>
     <row r="586">
       <c r="A586" t="n">
-        <v>649.2330864488736</v>
+        <v>862.9664301814159</v>
       </c>
     </row>
     <row r="587">
       <c r="A587" t="n">
-        <v>650.8951667345855</v>
+        <v>809.8755507245414</v>
       </c>
     </row>
     <row r="588">
       <c r="A588" t="n">
-        <v>573.5327582922878</v>
+        <v>670.7469610021235</v>
       </c>
     </row>
     <row r="589">
       <c r="A589" t="n">
-        <v>544.2471390497303</v>
+        <v>604.1092649406323</v>
       </c>
     </row>
     <row r="590">
       <c r="A590" t="n">
-        <v>581.2273638140368</v>
+        <v>613.724040649231</v>
       </c>
     </row>
     <row r="591">
       <c r="A591" t="n">
-        <v>591.7415776886514</v>
+        <v>587.8719113447346</v>
       </c>
     </row>
     <row r="592">
       <c r="A592" t="n">
-        <v>611.9074553195105</v>
+        <v>571.6701440681504</v>
       </c>
     </row>
     <row r="593">
       <c r="A593" t="n">
-        <v>604.3993644783541</v>
+        <v>617.7508236513063</v>
       </c>
     </row>
     <row r="594">
       <c r="A594" t="n">
-        <v>622.0140425024283</v>
+        <v>636.8464126389313</v>
       </c>
     </row>
     <row r="595">
       <c r="A595" t="n">
-        <v>668.043628894452</v>
+        <v>601.7270974060693</v>
       </c>
     </row>
     <row r="596">
       <c r="A596" t="n">
-        <v>711.9085238163052</v>
+        <v>603.876022246709</v>
       </c>
     </row>
     <row r="597">
       <c r="A597" t="n">
-        <v>745.380495925474</v>
+        <v>641.5640434516376</v>
       </c>
     </row>
     <row r="598">
       <c r="A598" t="n">
-        <v>776.0902535388254</v>
+        <v>675.1541817631619</v>
       </c>
     </row>
     <row r="599">
       <c r="A599" t="n">
-        <v>713.042221850742</v>
+        <v>723.3490555501589</v>
       </c>
     </row>
     <row r="600">
       <c r="A600" t="n">
-        <v>575.2448696061379</v>
+        <v>754.8930998401033</v>
       </c>
     </row>
     <row r="601">
       <c r="A601" t="n">
-        <v>554.248072227324</v>
+        <v>802.4850491573829</v>
       </c>
     </row>
     <row r="602">
       <c r="A602" t="n">
-        <v>549.6281497279369</v>
+        <v>669.4842504386429</v>
       </c>
     </row>
     <row r="603">
       <c r="A603" t="n">
-        <v>600.7309439575579</v>
+        <v>554.1634459511897</v>
       </c>
     </row>
     <row r="604">
       <c r="A604" t="n">
-        <v>560.3584551734002</v>
+        <v>532.3805696189083</v>
       </c>
     </row>
     <row r="605">
       <c r="A605" t="n">
-        <v>551.3164861508244</v>
+        <v>554.173983663361</v>
       </c>
     </row>
     <row r="606">
       <c r="A606" t="n">
-        <v>597.9260748746356</v>
+        <v>580.0841601425191</v>
       </c>
     </row>
     <row r="607">
       <c r="A607" t="n">
-        <v>669.8981978559573</v>
+        <v>532.2710251845706</v>
       </c>
     </row>
     <row r="608">
       <c r="A608" t="n">
-        <v>758.9471193803661</v>
+        <v>567.6559611892458</v>
       </c>
     </row>
     <row r="609">
       <c r="A609" t="n">
-        <v>737.2353002631939</v>
+        <v>653.9990341871089</v>
       </c>
     </row>
     <row r="610">
       <c r="A610" t="n">
-        <v>685.1015326368497</v>
+        <v>709.9091564134596</v>
       </c>
     </row>
     <row r="611">
       <c r="A611" t="n">
-        <v>597.6180647021465</v>
+        <v>750.2803017946462</v>
       </c>
     </row>
     <row r="612">
       <c r="A612" t="n">
-        <v>539.353164661236</v>
+        <v>703.0917662490879</v>
       </c>
     </row>
     <row r="613">
       <c r="A613" t="n">
-        <v>529.3798627922683</v>
+        <v>647.6443626671653</v>
       </c>
     </row>
     <row r="614">
       <c r="A614" t="n">
-        <v>562.3223101844701</v>
+        <v>598.6205657716255</v>
       </c>
     </row>
     <row r="615">
       <c r="A615" t="n">
-        <v>623.7652438188661</v>
+        <v>536.6851024114681</v>
       </c>
     </row>
     <row r="616">
       <c r="A616" t="n">
-        <v>713.8734516096861</v>
+        <v>533.3304955951235</v>
       </c>
     </row>
     <row r="617">
       <c r="A617" t="n">
-        <v>795.0822632676022</v>
+        <v>595.4124361938398</v>
       </c>
     </row>
     <row r="618">
       <c r="A618" t="n">
-        <v>747.5772151615843</v>
+        <v>674.7276623639777</v>
       </c>
     </row>
     <row r="619">
       <c r="A619" t="n">
-        <v>698.9908520447443</v>
+        <v>757.7777246735309</v>
       </c>
     </row>
     <row r="620">
       <c r="A620" t="n">
-        <v>677.3292876620189</v>
+        <v>788.580525092982</v>
       </c>
     </row>
     <row r="621">
       <c r="A621" t="n">
-        <v>576.9073143690093</v>
+        <v>719.019629680588</v>
       </c>
     </row>
     <row r="622">
       <c r="A622" t="n">
-        <v>541.8213668673957</v>
+        <v>698.2755037766992</v>
       </c>
     </row>
     <row r="623">
       <c r="A623" t="n">
-        <v>514.4968671069137</v>
+        <v>655.1671855370387</v>
       </c>
     </row>
     <row r="624">
       <c r="A624" t="n">
-        <v>495.7239420302813</v>
+        <v>577.2338705664879</v>
       </c>
     </row>
     <row r="625">
       <c r="A625" t="n">
-        <v>517.9142579563063</v>
+        <v>522.9968241781648</v>
       </c>
     </row>
     <row r="626">
       <c r="A626" t="n">
-        <v>571.763777743115</v>
+        <v>464.8051520788385</v>
       </c>
     </row>
     <row r="627">
       <c r="A627" t="n">
-        <v>583.3576138733747</v>
+        <v>463.9732707362327</v>
       </c>
     </row>
     <row r="628">
       <c r="A628" t="n">
-        <v>679.534792703862</v>
+        <v>531.526020869876</v>
       </c>
     </row>
     <row r="629">
       <c r="A629" t="n">
-        <v>684.3677033345443</v>
+        <v>533.0423079938669</v>
       </c>
     </row>
     <row r="630">
       <c r="A630" t="n">
-        <v>668.937806437043</v>
+        <v>607.8273055838963</v>
       </c>
     </row>
     <row r="631">
       <c r="A631" t="n">
-        <v>661.6627567637465</v>
+        <v>692.6386299853675</v>
       </c>
     </row>
     <row r="632">
       <c r="A632" t="n">
-        <v>614.421274327583</v>
+        <v>685.6651002241847</v>
       </c>
     </row>
     <row r="633">
       <c r="A633" t="n">
-        <v>585.0359695353404</v>
+        <v>662.4128985748712</v>
       </c>
     </row>
     <row r="634">
       <c r="A634" t="n">
-        <v>621.8946951187831</v>
+        <v>651.9650855883583</v>
       </c>
     </row>
     <row r="635">
       <c r="A635" t="n">
-        <v>621.3164608509487</v>
+        <v>611.8713732900005</v>
       </c>
     </row>
     <row r="636">
       <c r="A636" t="n">
-        <v>614.393082050924</v>
+        <v>588.6715724319629</v>
       </c>
     </row>
     <row r="637">
       <c r="A637" t="n">
-        <v>630.5244350572252</v>
+        <v>636.7943022181635</v>
       </c>
     </row>
     <row r="638">
       <c r="A638" t="n">
-        <v>659.6886832326163</v>
+        <v>625.1167618966633</v>
       </c>
     </row>
     <row r="639">
       <c r="A639" t="n">
-        <v>735.24240407977</v>
+        <v>609.9399749572854</v>
       </c>
     </row>
     <row r="640">
       <c r="A640" t="n">
-        <v>713.4007697897573</v>
+        <v>622.4455355271061</v>
       </c>
     </row>
     <row r="641">
       <c r="A641" t="n">
-        <v>739.9075000615198</v>
+        <v>660.0897850339038</v>
       </c>
     </row>
     <row r="642">
       <c r="A642" t="n">
-        <v>790.0501707835588</v>
+        <v>751.1758776693114</v>
       </c>
     </row>
     <row r="643">
       <c r="A643" t="n">
-        <v>818.8039604628443</v>
+        <v>734.8162156132503</v>
       </c>
     </row>
     <row r="644">
       <c r="A644" t="n">
-        <v>759.1719612644283</v>
+        <v>757.7807912069829</v>
       </c>
     </row>
     <row r="645">
       <c r="A645" t="n">
-        <v>710.0325826139056</v>
+        <v>824.1007501600848</v>
       </c>
     </row>
     <row r="646">
       <c r="A646" t="n">
-        <v>648.119739777826</v>
+        <v>774.7087929882923</v>
       </c>
     </row>
     <row r="647">
       <c r="A647" t="n">
-        <v>547.3585607138602</v>
+        <v>703.3173530066961</v>
       </c>
     </row>
     <row r="648">
       <c r="A648" t="n">
-        <v>531.2936216721482</v>
+        <v>679.5479547741934</v>
       </c>
     </row>
     <row r="649">
       <c r="A649" t="n">
-        <v>595.3245126682418</v>
+        <v>639.240887279982</v>
       </c>
     </row>
     <row r="650">
       <c r="A650" t="n">
-        <v>740.3442865699503</v>
+        <v>563.0127289784355</v>
       </c>
     </row>
     <row r="651">
       <c r="A651" t="n">
-        <v>782.8064647336532</v>
+        <v>558.4803836362653</v>
       </c>
     </row>
     <row r="652">
       <c r="A652" t="n">
-        <v>810.3884716047673</v>
+        <v>640.0030925658484</v>
       </c>
     </row>
     <row r="653">
       <c r="A653" t="n">
-        <v>738.1610303180537</v>
+        <v>739.7416332300963</v>
       </c>
     </row>
     <row r="654">
       <c r="A654" t="n">
-        <v>649.7996098192971</v>
+        <v>781.5218441510865</v>
       </c>
     </row>
     <row r="655">
       <c r="A655" t="n">
-        <v>647.3578478666013</v>
+        <v>788.5513186243998</v>
       </c>
     </row>
     <row r="656">
       <c r="A656" t="n">
-        <v>598.5931839584282</v>
+        <v>708.586156993249</v>
       </c>
     </row>
     <row r="657">
       <c r="A657" t="n">
-        <v>557.4322480160845</v>
+        <v>684.777114250835</v>
       </c>
     </row>
     <row r="658">
       <c r="A658" t="n">
-        <v>538.4096515959982</v>
+        <v>666.8439175232947</v>
       </c>
     </row>
     <row r="659">
       <c r="A659" t="n">
-        <v>573.4018984568365</v>
+        <v>598.7031677917685</v>
       </c>
     </row>
     <row r="660">
       <c r="A660" t="n">
-        <v>599.7443012893768</v>
+        <v>551.8819222735942</v>
       </c>
     </row>
     <row r="661">
       <c r="A661" t="n">
-        <v>616.5614643838921</v>
+        <v>546.956771583325</v>
       </c>
     </row>
     <row r="662">
       <c r="A662" t="n">
-        <v>603.6210321298654</v>
+        <v>569.9643050436975</v>
       </c>
     </row>
     <row r="663">
       <c r="A663" t="n">
-        <v>629.2604724491184</v>
+        <v>575.1780896737841</v>
       </c>
     </row>
     <row r="664">
       <c r="A664" t="n">
-        <v>689.0407787234381</v>
+        <v>606.0169636734258</v>
       </c>
     </row>
     <row r="665">
       <c r="A665" t="n">
-        <v>712.5989563900248</v>
+        <v>604.2506736642963</v>
       </c>
     </row>
     <row r="666">
       <c r="A666" t="n">
-        <v>737.8418650500862</v>
+        <v>652.5793085254463</v>
       </c>
     </row>
     <row r="667">
       <c r="A667" t="n">
-        <v>779.5963942087383</v>
+        <v>715.3619796389421</v>
       </c>
     </row>
     <row r="668">
       <c r="A668" t="n">
-        <v>745.8617501688991</v>
+        <v>748.4834959405475</v>
       </c>
     </row>
     <row r="669">
       <c r="A669" t="n">
-        <v>741.990000996509</v>
+        <v>755.5077884300658</v>
       </c>
     </row>
     <row r="670">
       <c r="A670" t="n">
-        <v>760.0061149320823</v>
+        <v>743.6272385671145</v>
       </c>
     </row>
     <row r="671">
       <c r="A671" t="n">
-        <v>781.7836050491564</v>
+        <v>745.9887476985614</v>
       </c>
     </row>
     <row r="672">
       <c r="A672" t="n">
-        <v>728.9452952313127</v>
+        <v>768.6958952342025</v>
       </c>
     </row>
     <row r="673">
       <c r="A673" t="n">
-        <v>718.645362211987</v>
+        <v>753.4148121879412</v>
       </c>
     </row>
     <row r="674">
       <c r="A674" t="n">
-        <v>738.8719975367621</v>
+        <v>770.442344282344</v>
       </c>
     </row>
     <row r="675">
       <c r="A675" t="n">
-        <v>777.680642435655</v>
+        <v>746.7401350504019</v>
       </c>
     </row>
     <row r="676">
       <c r="A676" t="n">
-        <v>676.9067661875283</v>
+        <v>745.9546592072002</v>
       </c>
     </row>
     <row r="677">
       <c r="A677" t="n">
-        <v>555.9874370032958</v>
+        <v>751.9100556000922</v>
       </c>
     </row>
     <row r="678">
       <c r="A678" t="n">
-        <v>532.1195672269141</v>
+        <v>750.4217228260472</v>
       </c>
     </row>
     <row r="679">
       <c r="A679" t="n">
-        <v>571.7087341685101</v>
+        <v>628.1726052361023</v>
       </c>
     </row>
     <row r="680">
       <c r="A680" t="n">
-        <v>624.3339162246002</v>
+        <v>535.5737097997917</v>
       </c>
     </row>
     <row r="681">
       <c r="A681" t="n">
-        <v>658.279240671618</v>
+        <v>535.8523711561816</v>
       </c>
     </row>
     <row r="682">
       <c r="A682" t="n">
-        <v>628.2474220856784</v>
+        <v>583.0019724890008</v>
       </c>
     </row>
     <row r="683">
       <c r="A683" t="n">
-        <v>648.1424498537081</v>
+        <v>627.9649908922238</v>
       </c>
     </row>
     <row r="684">
       <c r="A684" t="n">
-        <v>656.4014165984986</v>
+        <v>646.8207612476249</v>
       </c>
     </row>
     <row r="685">
       <c r="A685" t="n">
-        <v>618.2522922233602</v>
+        <v>603.2304168592191</v>
       </c>
     </row>
     <row r="686">
       <c r="A686" t="n">
-        <v>681.0420688299246</v>
+        <v>622.3284345890079</v>
       </c>
     </row>
     <row r="687">
       <c r="A687" t="n">
-        <v>753.943177406768</v>
+        <v>644.7655408148307</v>
       </c>
     </row>
     <row r="688">
       <c r="A688" t="n">
-        <v>719.2064853032889</v>
+        <v>627.8201205601022</v>
       </c>
     </row>
     <row r="689">
       <c r="A689" t="n">
-        <v>746.8671960675124</v>
+        <v>694.7196829473228</v>
       </c>
     </row>
     <row r="690">
       <c r="A690" t="n">
-        <v>771.1182198855795</v>
+        <v>777.6480302872528</v>
       </c>
     </row>
     <row r="691">
       <c r="A691" t="n">
-        <v>729.6278591610417</v>
+        <v>732.3586784179383</v>
       </c>
     </row>
     <row r="692">
       <c r="A692" t="n">
-        <v>664.3872186973567</v>
+        <v>746.1579998602588</v>
       </c>
     </row>
     <row r="693">
       <c r="A693" t="n">
-        <v>585.8053493490729</v>
+        <v>754.9210340490049</v>
+      </c>
+    </row>
+    <row r="694">
+      <c r="A694" t="n">
+        <v>713.0429267205045</v>
+      </c>
+    </row>
+    <row r="695">
+      <c r="A695" t="n">
+        <v>651.7999332065756</v>
+      </c>
+    </row>
+    <row r="696">
+      <c r="A696" t="n">
+        <v>574.2577063576846</v>
+      </c>
+    </row>
+    <row r="697">
+      <c r="A697" t="n">
+        <v>550.5273846926002</v>
       </c>
     </row>
   </sheetData>

--- a/simulated_data/dyads_simulated/cond3_no_coupling/HRV_B.xlsx
+++ b/simulated_data/dyads_simulated/cond3_no_coupling/HRV_B.xlsx
@@ -435,3477 +435,3477 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>585.8359934229338</v>
+        <v>599.4824010561942</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>648.8725970206513</v>
+        <v>623.3089874945389</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>679.1882867001098</v>
+        <v>680.9179424308558</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>683.2048825640418</v>
+        <v>660.6130746261316</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>659.0026466669694</v>
+        <v>679.3220514148079</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>603.7296009315103</v>
+        <v>648.8583802211854</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>549.3625157083679</v>
+        <v>660.9107202707252</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>565.5324673023143</v>
+        <v>667.4132640016079</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>554.9787417788688</v>
+        <v>681.1027686608658</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>580.871414339275</v>
+        <v>694.4987734887737</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>632.2706053549663</v>
+        <v>653.9626663455235</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>674.7056565351297</v>
+        <v>615.3415229209171</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>760.9465065993274</v>
+        <v>664.468886723184</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>701.9936341666711</v>
+        <v>709.8809932304686</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>720.8837551595693</v>
+        <v>671.1636816761306</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>644.8274490077974</v>
+        <v>722.3053974362958</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>534.8470376862356</v>
+        <v>671.8091899460745</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>501.7326852970303</v>
+        <v>600.9951880038784</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>555.2076514261479</v>
+        <v>630.4180878968673</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>589.1705170603565</v>
+        <v>633.078023019463</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>629.9561188266107</v>
+        <v>603.7578668898256</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>654.0033355660171</v>
+        <v>632.6169310114267</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>616.1203870517725</v>
+        <v>669.8797815171922</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>558.711331036573</v>
+        <v>668.3615968179257</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>597.5826114896065</v>
+        <v>755.5106070318977</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>673.6371735629376</v>
+        <v>852.9457843506343</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>656.9762642089501</v>
+        <v>894.9894669260275</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>660.9840603816508</v>
+        <v>849.098101658587</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>739.8356280522407</v>
+        <v>719.5424210070555</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>829.2389118087619</v>
+        <v>607.4209245004276</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>800.7674443325463</v>
+        <v>561.0661198287125</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>786.4121969075698</v>
+        <v>576.6569082414748</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>716.9199531806463</v>
+        <v>574.5822356038808</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>612.1660956538726</v>
+        <v>554.9257702848287</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>646.3664213130791</v>
+        <v>574.0137952884936</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>668.4869962781015</v>
+        <v>632.8639060031485</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>671.9545697699481</v>
+        <v>703.5673124059194</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>691.1011752336584</v>
+        <v>694.5245395380795</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>738.0544504451194</v>
+        <v>681.6911957324799</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>756.1857506247769</v>
+        <v>729.9894781446988</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>729.6492380506479</v>
+        <v>757.1721734986347</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>658.8176414555917</v>
+        <v>759.9372167688614</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>642.9623389484966</v>
+        <v>714.1699222074642</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>610.7468773370997</v>
+        <v>708.577906817311</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>634.8884866047832</v>
+        <v>709.3516277105465</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>698.6369059781481</v>
+        <v>758.4299389743272</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>766.6851074082182</v>
+        <v>776.0737669181203</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>822.3445457843219</v>
+        <v>750.9377228888354</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>834.1339937662938</v>
+        <v>753.252331238329</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>808.6457398923415</v>
+        <v>667.9670657191394</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>747.2410985771987</v>
+        <v>691.9200716907667</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>688.3592103716082</v>
+        <v>737.409402399642</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>684.3559132094797</v>
+        <v>746.4653854849885</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>670.729418690506</v>
+        <v>700.4290594859697</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>637.4641822108345</v>
+        <v>679.6521978011256</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>681.9506745078598</v>
+        <v>678.8676399902229</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>695.3116342976741</v>
+        <v>649.3704650136963</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>681.7116548882041</v>
+        <v>623.8430595409384</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>604.137172947631</v>
+        <v>618.9096107166137</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>647.22995229463</v>
+        <v>697.3452210623564</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>682.5125461015418</v>
+        <v>739.637999336793</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>744.613226290511</v>
+        <v>680.7229382069124</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>797.1008974389306</v>
+        <v>686.697489515062</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>811.9211602557712</v>
+        <v>670.3784006100832</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>679.372533985621</v>
+        <v>771.0572283108519</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>555.139235051513</v>
+        <v>787.1950578825846</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>518.8673703990787</v>
+        <v>746.2635567900691</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>500.6570975565694</v>
+        <v>749.6192804561872</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>530.5181427031442</v>
+        <v>728.4506108036553</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>582.7696795329232</v>
+        <v>722.3762816234256</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>630.4440318491445</v>
+        <v>638.0081654786025</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>686.3964784191552</v>
+        <v>623.2715210181468</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>705.3819876910622</v>
+        <v>659.9090357784476</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>752.304728386214</v>
+        <v>681.4052186249313</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>730.4762814008541</v>
+        <v>612.2287776389967</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>687.5929128374808</v>
+        <v>573.1920059634774</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>656.8053796079098</v>
+        <v>595.467146233787</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>663.1735343054146</v>
+        <v>658.3894191987412</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>667.4287273319592</v>
+        <v>650.2709626087011</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>679.1847068583436</v>
+        <v>679.5327128028816</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>737.6466432162872</v>
+        <v>716.8725149576716</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>803.2545592531761</v>
+        <v>734.1209335808046</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>829.5817054398285</v>
+        <v>747.5334874944224</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>757.5685310454148</v>
+        <v>737.6235635981061</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>676.8849398198853</v>
+        <v>647.6522299993164</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>632.9145389432966</v>
+        <v>568.9329093286303</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>672.0179451428265</v>
+        <v>531.1202191223786</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>717.1161632001599</v>
+        <v>524.5621422180093</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>671.8785474186717</v>
+        <v>537.4935050417448</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>655.8728196748759</v>
+        <v>570.1372085108644</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>640.1528305467963</v>
+        <v>595.2002315837746</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>642.5791609747976</v>
+        <v>578.2382390789564</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>649.0367706520956</v>
+        <v>553.3233656772652</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>634.130037177023</v>
+        <v>568.6721051606014</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>623.530980467649</v>
+        <v>649.7857546896597</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>649.5086992447555</v>
+        <v>703.4462273436829</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>691.6654833563882</v>
+        <v>717.9479598248264</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>716.1751390301134</v>
+        <v>692.0076178761008</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>666.342940555225</v>
+        <v>735.7483675356917</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>602.7836697497406</v>
+        <v>697.7663772617291</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>561.6993006436672</v>
+        <v>649.1066145164979</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>524.4214983535613</v>
+        <v>570.16025625704</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>557.9276961520634</v>
+        <v>564.6658717110284</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>636.7372503720077</v>
+        <v>575.1028186845275</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>710.4381403922559</v>
+        <v>595.0940491375434</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>675.9644518035657</v>
+        <v>556.7940419657305</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>663.6332092923567</v>
+        <v>506.9565408851844</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>633.6333993868664</v>
+        <v>555.0494816064599</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>631.8279200933432</v>
+        <v>578.5023706264383</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>649.4771322608273</v>
+        <v>608.2910869374416</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>688.2574616624311</v>
+        <v>636.0761310598519</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>716.2176011860879</v>
+        <v>639.9273841406767</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>756.4529503739692</v>
+        <v>665.1039523161728</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>741.6028336438529</v>
+        <v>656.9032289000205</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>702.9970625088282</v>
+        <v>635.09566733903</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>721.3251916332695</v>
+        <v>632.9589492908809</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>703.7790786153408</v>
+        <v>643.1485477410916</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>704.9814101331293</v>
+        <v>763.7404733275446</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>635.0856875474022</v>
+        <v>828.2342179043241</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>633.6858456842549</v>
+        <v>707.6897014265029</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>694.4462871963424</v>
+        <v>634.9294809807731</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>624.8606551195905</v>
+        <v>626.9324436231187</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>668.6010874609849</v>
+        <v>669.6870392767096</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>737.4046787871862</v>
+        <v>667.0120957961387</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>687.2778500936079</v>
+        <v>688.7154420466572</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>683.4161590789734</v>
+        <v>740.9672089556665</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>684.875101813887</v>
+        <v>731.6945837245612</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>623.9111506953776</v>
+        <v>744.3125182987558</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>644.9770857880139</v>
+        <v>745.5855652443546</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>666.7170134751359</v>
+        <v>728.5808875999749</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>623.7750301074243</v>
+        <v>716.1469357570667</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>644.1047901078321</v>
+        <v>760.0653994688145</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>643.0077075953022</v>
+        <v>758.3217236516333</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>619.7438320953239</v>
+        <v>697.9241263648106</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>594.5620265174654</v>
+        <v>645.6158351387273</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>584.3647468964974</v>
+        <v>621.5869803793623</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>603.5247398397274</v>
+        <v>638.0757517022886</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>665.0967363792688</v>
+        <v>676.347970393266</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>695.9650539828885</v>
+        <v>753.9589870042391</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>618.7766115382942</v>
+        <v>786.3994991255652</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>511.9332144390114</v>
+        <v>823.1543243667403</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>460.7910673552738</v>
+        <v>734.2532215237867</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>423.6671024015379</v>
+        <v>630.3936536372561</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>403.8033872334523</v>
+        <v>604.5059774023542</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>453.7308391998209</v>
+        <v>595.7025515542824</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>488.5271347391296</v>
+        <v>572.8208436069053</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>502.1087177428711</v>
+        <v>599.2362430953051</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>518.8185138549244</v>
+        <v>653.4339414853747</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>585.4605734393346</v>
+        <v>682.1713998081123</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>713.9681051321958</v>
+        <v>758.958708618735</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>756.7748942641401</v>
+        <v>800.870369236435</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>715.0495582932024</v>
+        <v>714.4526735539216</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>616.6244497395894</v>
+        <v>677.4828146522793</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>525.2385341764096</v>
+        <v>639.992850889314</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>501.730843592199</v>
+        <v>610.2857779624884</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>483.1624856778802</v>
+        <v>562.0401766592522</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>498.4259597998175</v>
+        <v>516.2102793924959</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>511.022052543936</v>
+        <v>519.9446145188062</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>489.6204822150878</v>
+        <v>569.9192735725092</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>506.4883502374329</v>
+        <v>711.2298223892282</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>568.7816963138346</v>
+        <v>794.2583068136742</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>622.363813626464</v>
+        <v>685.5174222544065</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>598.0820807459253</v>
+        <v>608.4041794492947</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>568.1031402305194</v>
+        <v>583.5064790608868</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>598.5217812562951</v>
+        <v>622.8922337703438</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>613.9428963502809</v>
+        <v>668.6260451348147</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>571.0515025189977</v>
+        <v>748.8992924859446</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>491.1148363092224</v>
+        <v>818.1756629989678</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>437.0749767107611</v>
+        <v>793.177727024954</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>410.0163664326431</v>
+        <v>609.4501155078262</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>405.7802440374871</v>
+        <v>563.6957073182884</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>394.035185204217</v>
+        <v>606.5447974912104</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>456.5521460361168</v>
+        <v>597.5978383541758</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="n">
-        <v>492.8410180220908</v>
+        <v>628.6317123574463</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>542.4550643101753</v>
+        <v>717.3613243821251</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="n">
-        <v>582.5111840657513</v>
+        <v>819.9900867793417</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="n">
-        <v>633.3484574953587</v>
+        <v>774.6583021088753</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="n">
-        <v>650.4459112938719</v>
+        <v>729.0485063078194</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>590.656363350945</v>
+        <v>643.647959913352</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="n">
-        <v>554.8346888688656</v>
+        <v>585.3029647182808</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>558.6861428467955</v>
+        <v>601.5547481503063</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="n">
-        <v>587.2817769342475</v>
+        <v>676.5729254200892</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>567.6121007284536</v>
+        <v>761.3688251712887</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>535.3771476402756</v>
+        <v>775.1520974291708</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="n">
-        <v>495.3035299291741</v>
+        <v>799.1152320223165</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="n">
-        <v>489.5768538922027</v>
+        <v>816.4165842026705</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="n">
-        <v>473.3337374374855</v>
+        <v>722.4679300963857</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="n">
-        <v>463.9423621325278</v>
+        <v>717.7853707866575</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="n">
-        <v>456.9374786846367</v>
+        <v>689.2483677768553</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="n">
-        <v>492.4304071338526</v>
+        <v>682.8970965865011</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="n">
-        <v>540.2322012825778</v>
+        <v>680.7563160107435</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="n">
-        <v>580.6358236306295</v>
+        <v>666.9850454755135</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="n">
-        <v>591.0820732376578</v>
+        <v>688.3709255204735</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="n">
-        <v>630.8942515651097</v>
+        <v>684.6241878636476</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="n">
-        <v>668.2691131272378</v>
+        <v>635.7706417325915</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="n">
-        <v>682.4184275447749</v>
+        <v>619.0794088176119</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="n">
-        <v>627.8387778403243</v>
+        <v>587.5389067506944</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="n">
-        <v>567.06796183839</v>
+        <v>578.9881878657752</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="n">
-        <v>602.2479104216103</v>
+        <v>625.6632396595876</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="n">
-        <v>677.0388610402591</v>
+        <v>636.6440453179791</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="n">
-        <v>744.4433159884909</v>
+        <v>653.2740566574091</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="n">
-        <v>720.6452853582022</v>
+        <v>742.0134913180902</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="n">
-        <v>662.1978929641301</v>
+        <v>752.662489785763</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="n">
-        <v>575.4595434904957</v>
+        <v>775.9446371583181</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="n">
-        <v>612.6937981573803</v>
+        <v>773.4044408718717</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="n">
-        <v>651.5864128205635</v>
+        <v>697.6714418444487</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="n">
-        <v>641.3712584610209</v>
+        <v>693.2938163007236</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="n">
-        <v>599.2924575116092</v>
+        <v>708.1743650222165</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="n">
-        <v>615.5965882833527</v>
+        <v>662.5933401862767</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="n">
-        <v>617.791000884921</v>
+        <v>605.0051327646315</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="n">
-        <v>642.4157573766252</v>
+        <v>557.797595398057</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="n">
-        <v>661.8898170933392</v>
+        <v>593.1551478723236</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="n">
-        <v>651.9987336614861</v>
+        <v>572.2211879790109</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="n">
-        <v>552.7429462681823</v>
+        <v>584.3141976606603</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="n">
-        <v>622.0687943026348</v>
+        <v>613.8287412966292</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="n">
-        <v>687.7769895746724</v>
+        <v>632.7695978504551</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="n">
-        <v>663.7572032095989</v>
+        <v>658.5407864948252</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="n">
-        <v>581.4726038068159</v>
+        <v>681.7526192197079</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="n">
-        <v>584.6854762172029</v>
+        <v>689.7658765911387</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="n">
-        <v>621.7781920995833</v>
+        <v>654.7092378220327</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="n">
-        <v>674.5707751256589</v>
+        <v>624.7220685773129</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="n">
-        <v>669.1560992259724</v>
+        <v>627.288014492251</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="n">
-        <v>669.4536370878552</v>
+        <v>647.865722470641</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="n">
-        <v>661.5743175112812</v>
+        <v>693.1446873119569</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="n">
-        <v>555.5125020373453</v>
+        <v>739.9940461434653</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="n">
-        <v>557.2746502924417</v>
+        <v>726.0271262250058</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="n">
-        <v>562.7527210897938</v>
+        <v>694.3572999318803</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="n">
-        <v>600.6084774744522</v>
+        <v>626.6084566885581</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="n">
-        <v>637.4051513552104</v>
+        <v>602.7633578159168</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="n">
-        <v>702.7395946211641</v>
+        <v>579.989889309104</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="n">
-        <v>694.7254836437935</v>
+        <v>538.6367309452851</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="n">
-        <v>635.6298001478535</v>
+        <v>511.5923160681461</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="n">
-        <v>608.3260068134564</v>
+        <v>476.7317755291458</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="n">
-        <v>650.7662793660813</v>
+        <v>437.5955185075497</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="n">
-        <v>686.4104611717892</v>
+        <v>448.5036995703808</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="n">
-        <v>715.9478725387203</v>
+        <v>438.7475271650771</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="n">
-        <v>768.0903469109239</v>
+        <v>484.5258257764158</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="n">
-        <v>706.9181615781304</v>
+        <v>540.4891512364145</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="n">
-        <v>695.815865373703</v>
+        <v>607.2660758013058</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="n">
-        <v>692.2816736333175</v>
+        <v>666.0291584713605</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="n">
-        <v>721.9099374514144</v>
+        <v>663.6161825988438</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="n">
-        <v>716.4332990230946</v>
+        <v>631.7267656561114</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="n">
-        <v>726.1385963344367</v>
+        <v>587.4085354013516</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="n">
-        <v>690.7439971447218</v>
+        <v>554.5609561808078</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="n">
-        <v>651.2478207381207</v>
+        <v>500.7010239908425</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="n">
-        <v>693.8492149360229</v>
+        <v>435.7985568435936</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="n">
-        <v>701.8813166653217</v>
+        <v>388.571336674147</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="n">
-        <v>613.0828760828706</v>
+        <v>390.51482133371</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="n">
-        <v>605.4082447522262</v>
+        <v>422.2839517699981</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="n">
-        <v>646.3066420311634</v>
+        <v>451.0083112749328</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="n">
-        <v>672.4651077541353</v>
+        <v>447.9252089695933</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="n">
-        <v>625.3726874469123</v>
+        <v>461.5575018819698</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="n">
-        <v>604.7984857941344</v>
+        <v>556.1414952150869</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="n">
-        <v>614.9111339396427</v>
+        <v>581.0898299504856</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="n">
-        <v>678.9696177158362</v>
+        <v>584.7551874950909</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="n">
-        <v>724.3281492760332</v>
+        <v>640.025829552286</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="n">
-        <v>807.4910764555341</v>
+        <v>614.4123642918657</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="n">
-        <v>768.964270657591</v>
+        <v>564.1146358844082</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="n">
-        <v>721.8335117530899</v>
+        <v>500.4978149015074</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="n">
-        <v>649.5132606972049</v>
+        <v>513.6310609707948</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="n">
-        <v>595.3872594749612</v>
+        <v>535.6217558633034</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="n">
-        <v>636.3338949338129</v>
+        <v>565.3627045385008</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="n">
-        <v>660.6943456311569</v>
+        <v>529.4470213759439</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="n">
-        <v>646.156327437069</v>
+        <v>545.0363824220688</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="n">
-        <v>690.0279444392936</v>
+        <v>594.2479708135693</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="n">
-        <v>709.8297758072647</v>
+        <v>619.6337211118532</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="n">
-        <v>699.196795490451</v>
+        <v>596.5313224849353</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="n">
-        <v>772.779041976861</v>
+        <v>583.9486743132056</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="n">
-        <v>765.418770473218</v>
+        <v>653.6405548257562</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="n">
-        <v>759.7199435756181</v>
+        <v>688.6793866185883</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="n">
-        <v>707.2215052756121</v>
+        <v>713.87940105555</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="n">
-        <v>661.0051886446797</v>
+        <v>674.2613452188664</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="n">
-        <v>699.0465319724137</v>
+        <v>614.3618365265979</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="n">
-        <v>766.510593587185</v>
+        <v>562.6288190209721</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="n">
-        <v>776.7608657683525</v>
+        <v>545.2808049461737</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="n">
-        <v>719.4299183261421</v>
+        <v>577.4188292630811</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="n">
-        <v>674.9941322668178</v>
+        <v>581.9312984240526</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="n">
-        <v>686.84812807507</v>
+        <v>624.4109529848458</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="n">
-        <v>681.7778049841365</v>
+        <v>667.6814866434313</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="n">
-        <v>612.8587557345782</v>
+        <v>727.3187123751086</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="n">
-        <v>591.0477581658995</v>
+        <v>714.1063044854832</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="n">
-        <v>580.5858399335477</v>
+        <v>661.9593251546974</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="n">
-        <v>595.7310218559257</v>
+        <v>645.9334914192993</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="n">
-        <v>621.5041987576058</v>
+        <v>638.5528803697298</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="n">
-        <v>685.7008834721228</v>
+        <v>646.4298734447311</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="n">
-        <v>750.1581694722574</v>
+        <v>654.3471775867715</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="n">
-        <v>701.5862518861411</v>
+        <v>670.3726642625725</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="n">
-        <v>699.1792069248959</v>
+        <v>658.1249405877827</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="n">
-        <v>659.1442977427846</v>
+        <v>678.4084451792012</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="n">
-        <v>596.5082683848095</v>
+        <v>687.6485774252217</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="n">
-        <v>584.2270483155403</v>
+        <v>768.3534546341377</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="n">
-        <v>583.9973771047084</v>
+        <v>766.746083415029</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="n">
-        <v>621.459050868026</v>
+        <v>729.6818836655632</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="n">
-        <v>632.724376307749</v>
+        <v>698.2764968921344</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="n">
-        <v>665.1733738457608</v>
+        <v>629.4121115384996</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="n">
-        <v>604.0676401460701</v>
+        <v>598.5375894182994</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="n">
-        <v>584.9298179035998</v>
+        <v>611.5503788570322</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="n">
-        <v>569.0068721168871</v>
+        <v>653.7295502691336</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="n">
-        <v>505.6748954865498</v>
+        <v>652.3759604523036</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="n">
-        <v>484.9923750909682</v>
+        <v>651.8679441546453</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="n">
-        <v>529.1154511463674</v>
+        <v>656.5666551067295</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="n">
-        <v>578.8879952166894</v>
+        <v>701.5769423294955</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="n">
-        <v>571.0711703329991</v>
+        <v>704.6062824737191</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="n">
-        <v>527.6694039973506</v>
+        <v>689.8177956535676</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="n">
-        <v>513.9457924757664</v>
+        <v>691.682482789588</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="n">
-        <v>515.5942523072383</v>
+        <v>639.900088821463</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="n">
-        <v>487.9790061531253</v>
+        <v>644.7757647776768</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="n">
-        <v>528.4418748221071</v>
+        <v>639.5834186436105</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="n">
-        <v>601.6966981057408</v>
+        <v>624.9874165684446</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="n">
-        <v>615.3271832590121</v>
+        <v>601.4169092726718</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="n">
-        <v>606.4348280251579</v>
+        <v>609.698575992752</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="n">
-        <v>576.1457265240324</v>
+        <v>609.7481709757346</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="n">
-        <v>568.4849453570848</v>
+        <v>596.1449645294294</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="n">
-        <v>586.9621370893299</v>
+        <v>606.6150374591359</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="n">
-        <v>565.1276957323716</v>
+        <v>606.6161162987385</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="n">
-        <v>508.3724867601518</v>
+        <v>605.9435228529253</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="n">
-        <v>492.7524002256405</v>
+        <v>677.2752102917252</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="n">
-        <v>473.6753713572455</v>
+        <v>775.113410711441</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="n">
-        <v>494.9897073816203</v>
+        <v>838.7047848854934</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="n">
-        <v>446.1360873224578</v>
+        <v>781.5150827142077</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="n">
-        <v>438.7433000642602</v>
+        <v>726.7007828004921</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="n">
-        <v>475.4819834382147</v>
+        <v>776.6831550167126</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="n">
-        <v>554.9350691601944</v>
+        <v>726.5992390977658</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="n">
-        <v>654.3222411931993</v>
+        <v>655.998479324893</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="n">
-        <v>698.4885596191646</v>
+        <v>644.4330718705942</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="n">
-        <v>621.6292578180571</v>
+        <v>712.0622539703731</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="n">
-        <v>600.2192518209597</v>
+        <v>733.4756015371795</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="n">
-        <v>610.9090424240264</v>
+        <v>740.5448360471496</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="n">
-        <v>606.3172009316418</v>
+        <v>758.5242431601671</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="n">
-        <v>592.3886505687506</v>
+        <v>713.9028766978015</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="n">
-        <v>614.2940482561414</v>
+        <v>661.1072326166436</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="n">
-        <v>641.2355552958786</v>
+        <v>676.5741055239687</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="n">
-        <v>579.6270314995411</v>
+        <v>668.1671123616866</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="n">
-        <v>497.8043610345253</v>
+        <v>712.6895504381991</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="n">
-        <v>528.5814084616618</v>
+        <v>714.665960845366</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="n">
-        <v>544.6857777702121</v>
+        <v>655.5493325524822</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="n">
-        <v>525.8909806110807</v>
+        <v>527.0935039446556</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="n">
-        <v>500.4312600922844</v>
+        <v>531.1319815624813</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="n">
-        <v>497.4256803142225</v>
+        <v>530.2211065005338</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="n">
-        <v>518.1779306844021</v>
+        <v>544.4399261045874</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="n">
-        <v>567.4758342798611</v>
+        <v>545.8608928470881</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="n">
-        <v>609.1903211094802</v>
+        <v>596.7194667731235</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="n">
-        <v>670.0534945692027</v>
+        <v>671.8720968932246</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="n">
-        <v>687.7530656720978</v>
+        <v>675.5715336208254</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="n">
-        <v>669.7908861919757</v>
+        <v>662.4783280558404</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="n">
-        <v>648.2084996053459</v>
+        <v>712.9495247938564</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="n">
-        <v>626.5805053004385</v>
+        <v>703.5051760429383</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="n">
-        <v>552.1824223172302</v>
+        <v>659.8549862190737</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="n">
-        <v>519.7610678296201</v>
+        <v>681.3686368195704</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="n">
-        <v>507.5831126587218</v>
+        <v>713.6423640100702</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="n">
-        <v>539.1939414836315</v>
+        <v>719.7529250297237</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="n">
-        <v>554.6994541048775</v>
+        <v>674.82341178399</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="n">
-        <v>565.6739687335914</v>
+        <v>657.767080658914</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="n">
-        <v>581.1098108830492</v>
+        <v>593.9592568961984</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="n">
-        <v>580.8651620143621</v>
+        <v>548.3485250953777</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="n">
-        <v>582.8334585993957</v>
+        <v>598.2401590529776</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="n">
-        <v>562.1825253217594</v>
+        <v>679.1761066818367</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="n">
-        <v>522.2644749086385</v>
+        <v>696.5863413582269</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="n">
-        <v>525.9913642309186</v>
+        <v>721.6720202819431</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="n">
-        <v>579.2739109920149</v>
+        <v>734.1568116172823</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="n">
-        <v>631.3974568270169</v>
+        <v>728.4869816230923</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" t="n">
-        <v>703.4794073554735</v>
+        <v>734.3313320966445</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="n">
-        <v>699.7601962729902</v>
+        <v>665.8082375568313</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" t="n">
-        <v>637.0534980684681</v>
+        <v>616.5927538047811</v>
       </c>
     </row>
     <row r="367">
       <c r="A367" t="n">
-        <v>554.7203897933457</v>
+        <v>573.6187899976812</v>
       </c>
     </row>
     <row r="368">
       <c r="A368" t="n">
-        <v>473.2507492441869</v>
+        <v>569.7568186778597</v>
       </c>
     </row>
     <row r="369">
       <c r="A369" t="n">
-        <v>451.085281151677</v>
+        <v>591.1996570660847</v>
       </c>
     </row>
     <row r="370">
       <c r="A370" t="n">
-        <v>502.0697640282492</v>
+        <v>598.3130498213143</v>
       </c>
     </row>
     <row r="371">
       <c r="A371" t="n">
-        <v>548.9738929436214</v>
+        <v>622.5073939880872</v>
       </c>
     </row>
     <row r="372">
       <c r="A372" t="n">
-        <v>571.6566527675582</v>
+        <v>607.3733289459824</v>
       </c>
     </row>
     <row r="373">
       <c r="A373" t="n">
-        <v>607.9539834327363</v>
+        <v>590.8410737302745</v>
       </c>
     </row>
     <row r="374">
       <c r="A374" t="n">
-        <v>722.5738123569272</v>
+        <v>592.7204226266554</v>
       </c>
     </row>
     <row r="375">
       <c r="A375" t="n">
-        <v>746.10639432413</v>
+        <v>619.5650428084605</v>
       </c>
     </row>
     <row r="376">
       <c r="A376" t="n">
-        <v>769.305259544808</v>
+        <v>637.2322508547086</v>
       </c>
     </row>
     <row r="377">
       <c r="A377" t="n">
-        <v>718.0952224072144</v>
+        <v>692.8697834262039</v>
       </c>
     </row>
     <row r="378">
       <c r="A378" t="n">
-        <v>688.6341270213734</v>
+        <v>678.3763873429223</v>
       </c>
     </row>
     <row r="379">
       <c r="A379" t="n">
-        <v>729.2525234256004</v>
+        <v>657.3673693067406</v>
       </c>
     </row>
     <row r="380">
       <c r="A380" t="n">
-        <v>720.5469962479469</v>
+        <v>620.3907337516625</v>
       </c>
     </row>
     <row r="381">
       <c r="A381" t="n">
-        <v>729.590215186505</v>
+        <v>557.3425033660158</v>
       </c>
     </row>
     <row r="382">
       <c r="A382" t="n">
-        <v>659.7954311763772</v>
+        <v>559.8404314572747</v>
       </c>
     </row>
     <row r="383">
       <c r="A383" t="n">
-        <v>613.2921617814588</v>
+        <v>546.2206046672122</v>
       </c>
     </row>
     <row r="384">
       <c r="A384" t="n">
-        <v>607.065838770211</v>
+        <v>517.1970490350191</v>
       </c>
     </row>
     <row r="385">
       <c r="A385" t="n">
-        <v>566.5770442235782</v>
+        <v>499.2397084687354</v>
       </c>
     </row>
     <row r="386">
       <c r="A386" t="n">
-        <v>527.2422066948934</v>
+        <v>520.5045129517885</v>
       </c>
     </row>
     <row r="387">
       <c r="A387" t="n">
-        <v>545.8334176468043</v>
+        <v>589.36387137868</v>
       </c>
     </row>
     <row r="388">
       <c r="A388" t="n">
-        <v>588.3587537351502</v>
+        <v>639.5160155659596</v>
       </c>
     </row>
     <row r="389">
       <c r="A389" t="n">
-        <v>601.8950480446108</v>
+        <v>635.2946461300348</v>
       </c>
     </row>
     <row r="390">
       <c r="A390" t="n">
-        <v>670.3811607167438</v>
+        <v>632.4242069272827</v>
       </c>
     </row>
     <row r="391">
       <c r="A391" t="n">
-        <v>635.4783427779012</v>
+        <v>643.7543105970178</v>
       </c>
     </row>
     <row r="392">
       <c r="A392" t="n">
-        <v>632.9796172172735</v>
+        <v>632.9352506517125</v>
       </c>
     </row>
     <row r="393">
       <c r="A393" t="n">
-        <v>676.465800013176</v>
+        <v>512.688958671589</v>
       </c>
     </row>
     <row r="394">
       <c r="A394" t="n">
-        <v>731.7880469297791</v>
+        <v>486.4166632004867</v>
       </c>
     </row>
     <row r="395">
       <c r="A395" t="n">
-        <v>732.2129332960969</v>
+        <v>541.1485022461022</v>
       </c>
     </row>
     <row r="396">
       <c r="A396" t="n">
-        <v>678.7687686382355</v>
+        <v>531.2906476709998</v>
       </c>
     </row>
     <row r="397">
       <c r="A397" t="n">
-        <v>619.4399071206362</v>
+        <v>529.0144286597922</v>
       </c>
     </row>
     <row r="398">
       <c r="A398" t="n">
-        <v>570.7431512440735</v>
+        <v>540.045880910327</v>
       </c>
     </row>
     <row r="399">
       <c r="A399" t="n">
-        <v>579.1536249343494</v>
+        <v>526.0910043120361</v>
       </c>
     </row>
     <row r="400">
       <c r="A400" t="n">
-        <v>553.1958291896615</v>
+        <v>525.8599813154774</v>
       </c>
     </row>
     <row r="401">
       <c r="A401" t="n">
-        <v>547.0867267720507</v>
+        <v>471.0945532561936</v>
       </c>
     </row>
     <row r="402">
       <c r="A402" t="n">
-        <v>617.3336509697833</v>
+        <v>474.9645438110406</v>
       </c>
     </row>
     <row r="403">
       <c r="A403" t="n">
-        <v>682.7459413822226</v>
+        <v>467.5516734857865</v>
       </c>
     </row>
     <row r="404">
       <c r="A404" t="n">
-        <v>665.4539379075857</v>
+        <v>488.8032503267823</v>
       </c>
     </row>
     <row r="405">
       <c r="A405" t="n">
-        <v>676.1930471658388</v>
+        <v>568.1544580164086</v>
       </c>
     </row>
     <row r="406">
       <c r="A406" t="n">
-        <v>628.4019359693502</v>
+        <v>579.323919158071</v>
       </c>
     </row>
     <row r="407">
       <c r="A407" t="n">
-        <v>613.1202584066386</v>
+        <v>544.1417203015817</v>
       </c>
     </row>
     <row r="408">
       <c r="A408" t="n">
-        <v>651.9717937819678</v>
+        <v>604.9558209989527</v>
       </c>
     </row>
     <row r="409">
       <c r="A409" t="n">
-        <v>678.8755921442089</v>
+        <v>699.806424809708</v>
       </c>
     </row>
     <row r="410">
       <c r="A410" t="n">
-        <v>645.7341809797015</v>
+        <v>691.4987314503378</v>
       </c>
     </row>
     <row r="411">
       <c r="A411" t="n">
-        <v>617.2629748250245</v>
+        <v>646.9730772936941</v>
       </c>
     </row>
     <row r="412">
       <c r="A412" t="n">
-        <v>661.4916014939922</v>
+        <v>558.7204411511379</v>
       </c>
     </row>
     <row r="413">
       <c r="A413" t="n">
-        <v>679.9165599180128</v>
+        <v>505.5302413806544</v>
       </c>
     </row>
     <row r="414">
       <c r="A414" t="n">
-        <v>639.9470766717172</v>
+        <v>467.9812284108493</v>
       </c>
     </row>
     <row r="415">
       <c r="A415" t="n">
-        <v>626.3573406332057</v>
+        <v>500.5501273682285</v>
       </c>
     </row>
     <row r="416">
       <c r="A416" t="n">
-        <v>606.3990692993571</v>
+        <v>506.2406300252178</v>
       </c>
     </row>
     <row r="417">
       <c r="A417" t="n">
-        <v>638.614073140559</v>
+        <v>516.5601917303206</v>
       </c>
     </row>
     <row r="418">
       <c r="A418" t="n">
-        <v>645.8036051178055</v>
+        <v>539.0539927665827</v>
       </c>
     </row>
     <row r="419">
       <c r="A419" t="n">
-        <v>547.826502225746</v>
+        <v>548.0609937474128</v>
       </c>
     </row>
     <row r="420">
       <c r="A420" t="n">
-        <v>538.8483619602198</v>
+        <v>579.0215566909751</v>
       </c>
     </row>
     <row r="421">
       <c r="A421" t="n">
-        <v>565.1648104841343</v>
+        <v>609.8620045598295</v>
       </c>
     </row>
     <row r="422">
       <c r="A422" t="n">
-        <v>588.2840888436931</v>
+        <v>624.8685490019739</v>
       </c>
     </row>
     <row r="423">
       <c r="A423" t="n">
-        <v>641.9721762113682</v>
+        <v>646.4175183785983</v>
       </c>
     </row>
     <row r="424">
       <c r="A424" t="n">
-        <v>766.2655384823438</v>
+        <v>556.923143107781</v>
       </c>
     </row>
     <row r="425">
       <c r="A425" t="n">
-        <v>831.7218981472934</v>
+        <v>487.6311722602509</v>
       </c>
     </row>
     <row r="426">
       <c r="A426" t="n">
-        <v>845.0957091592386</v>
+        <v>501.8875984802662</v>
       </c>
     </row>
     <row r="427">
       <c r="A427" t="n">
-        <v>800.3957949539426</v>
+        <v>493.4477031416691</v>
       </c>
     </row>
     <row r="428">
       <c r="A428" t="n">
-        <v>750.6376699698194</v>
+        <v>531.6888329767835</v>
       </c>
     </row>
     <row r="429">
       <c r="A429" t="n">
-        <v>642.8824767727406</v>
+        <v>566.5664175153324</v>
       </c>
     </row>
     <row r="430">
       <c r="A430" t="n">
-        <v>619.0264623742223</v>
+        <v>539.2862008012003</v>
       </c>
     </row>
     <row r="431">
       <c r="A431" t="n">
-        <v>591.90016417881</v>
+        <v>546.1748767314134</v>
       </c>
     </row>
     <row r="432">
       <c r="A432" t="n">
-        <v>551.2704042534438</v>
+        <v>594.236531121453</v>
       </c>
     </row>
     <row r="433">
       <c r="A433" t="n">
-        <v>519.1902367763532</v>
+        <v>573.5989672904793</v>
       </c>
     </row>
     <row r="434">
       <c r="A434" t="n">
-        <v>530.0219155001287</v>
+        <v>564.3465750342216</v>
       </c>
     </row>
     <row r="435">
       <c r="A435" t="n">
-        <v>580.7487613316766</v>
+        <v>552.0598716326504</v>
       </c>
     </row>
     <row r="436">
       <c r="A436" t="n">
-        <v>641.3058527488715</v>
+        <v>562.7964235546301</v>
       </c>
     </row>
     <row r="437">
       <c r="A437" t="n">
-        <v>709.0554738721266</v>
+        <v>564.5276041078091</v>
       </c>
     </row>
     <row r="438">
       <c r="A438" t="n">
-        <v>801.3075373761467</v>
+        <v>560.6945763439626</v>
       </c>
     </row>
     <row r="439">
       <c r="A439" t="n">
-        <v>774.351715615353</v>
+        <v>615.5156366019128</v>
       </c>
     </row>
     <row r="440">
       <c r="A440" t="n">
-        <v>676.341550713687</v>
+        <v>632.77268090809</v>
       </c>
     </row>
     <row r="441">
       <c r="A441" t="n">
-        <v>655.1827123391263</v>
+        <v>633.7055095508504</v>
       </c>
     </row>
     <row r="442">
       <c r="A442" t="n">
-        <v>618.0259374052071</v>
+        <v>602.1251060698205</v>
       </c>
     </row>
     <row r="443">
       <c r="A443" t="n">
-        <v>557.9636752960369</v>
+        <v>588.2178848922877</v>
       </c>
     </row>
     <row r="444">
       <c r="A444" t="n">
-        <v>522.5531741418195</v>
+        <v>589.5122761716607</v>
       </c>
     </row>
     <row r="445">
       <c r="A445" t="n">
-        <v>559.627460828267</v>
+        <v>621.0496858375336</v>
       </c>
     </row>
     <row r="446">
       <c r="A446" t="n">
-        <v>573.9804411136333</v>
+        <v>727.2681428365217</v>
       </c>
     </row>
     <row r="447">
       <c r="A447" t="n">
-        <v>569.467657549751</v>
+        <v>756.3570686871799</v>
       </c>
     </row>
     <row r="448">
       <c r="A448" t="n">
-        <v>599.9459349557128</v>
+        <v>738.1999011715834</v>
       </c>
     </row>
     <row r="449">
       <c r="A449" t="n">
-        <v>618.2073242120509</v>
+        <v>743.8136855092807</v>
       </c>
     </row>
     <row r="450">
       <c r="A450" t="n">
-        <v>652.1015126897964</v>
+        <v>647.2736033688875</v>
       </c>
     </row>
     <row r="451">
       <c r="A451" t="n">
-        <v>635.6168943407283</v>
+        <v>602.7812850369401</v>
       </c>
     </row>
     <row r="452">
       <c r="A452" t="n">
-        <v>576.0273963596774</v>
+        <v>614.1868270404416</v>
       </c>
     </row>
     <row r="453">
       <c r="A453" t="n">
-        <v>566.3731420480076</v>
+        <v>648.1965578839208</v>
       </c>
     </row>
     <row r="454">
       <c r="A454" t="n">
-        <v>504.0726763095904</v>
+        <v>630.8675268965089</v>
       </c>
     </row>
     <row r="455">
       <c r="A455" t="n">
-        <v>499.6258415544048</v>
+        <v>545.5644095434877</v>
       </c>
     </row>
     <row r="456">
       <c r="A456" t="n">
-        <v>518.3977004750204</v>
+        <v>560.566134183091</v>
       </c>
     </row>
     <row r="457">
       <c r="A457" t="n">
-        <v>551.219196288514</v>
+        <v>609.9960459130784</v>
       </c>
     </row>
     <row r="458">
       <c r="A458" t="n">
-        <v>541.8100271365347</v>
+        <v>674.3405970340746</v>
       </c>
     </row>
     <row r="459">
       <c r="A459" t="n">
-        <v>525.9990598672744</v>
+        <v>721.7614306033511</v>
       </c>
     </row>
     <row r="460">
       <c r="A460" t="n">
-        <v>541.9020915244346</v>
+        <v>707.7056878392796</v>
       </c>
     </row>
     <row r="461">
       <c r="A461" t="n">
-        <v>550.7873989982386</v>
+        <v>641.4932964363516</v>
       </c>
     </row>
     <row r="462">
       <c r="A462" t="n">
-        <v>572.9974987128799</v>
+        <v>586.9699639275154</v>
       </c>
     </row>
     <row r="463">
       <c r="A463" t="n">
-        <v>558.443572653232</v>
+        <v>576.5357929568609</v>
       </c>
     </row>
     <row r="464">
       <c r="A464" t="n">
-        <v>606.1665467888702</v>
+        <v>622.8150724936086</v>
       </c>
     </row>
     <row r="465">
       <c r="A465" t="n">
-        <v>722.6412658549748</v>
+        <v>670.602063241688</v>
       </c>
     </row>
     <row r="466">
       <c r="A466" t="n">
-        <v>755.9068969313216</v>
+        <v>706.1742110324758</v>
       </c>
     </row>
     <row r="467">
       <c r="A467" t="n">
-        <v>721.1695115348107</v>
+        <v>699.6786658796168</v>
       </c>
     </row>
     <row r="468">
       <c r="A468" t="n">
-        <v>641.7313984358088</v>
+        <v>641.7038693567179</v>
       </c>
     </row>
     <row r="469">
       <c r="A469" t="n">
-        <v>587.1907709498601</v>
+        <v>570.5976587157124</v>
       </c>
     </row>
     <row r="470">
       <c r="A470" t="n">
-        <v>587.9102077845459</v>
+        <v>578.5573393411028</v>
       </c>
     </row>
     <row r="471">
       <c r="A471" t="n">
-        <v>636.8757745470361</v>
+        <v>635.4699616825314</v>
       </c>
     </row>
     <row r="472">
       <c r="A472" t="n">
-        <v>674.1714565234247</v>
+        <v>725.9345644296786</v>
       </c>
     </row>
     <row r="473">
       <c r="A473" t="n">
-        <v>653.7376125712058</v>
+        <v>780.5332627917778</v>
       </c>
     </row>
     <row r="474">
       <c r="A474" t="n">
-        <v>607.529789643138</v>
+        <v>721.018977978531</v>
       </c>
     </row>
     <row r="475">
       <c r="A475" t="n">
-        <v>553.3500985712863</v>
+        <v>692.8076980362903</v>
       </c>
     </row>
     <row r="476">
       <c r="A476" t="n">
-        <v>523.6971438931164</v>
+        <v>722.2207377467953</v>
       </c>
     </row>
     <row r="477">
       <c r="A477" t="n">
-        <v>553.2629934091347</v>
+        <v>697.7835860440678</v>
       </c>
     </row>
     <row r="478">
       <c r="A478" t="n">
-        <v>590.8474551482072</v>
+        <v>640.8672106820745</v>
       </c>
     </row>
     <row r="479">
       <c r="A479" t="n">
-        <v>612.754225032802</v>
+        <v>599.5310332502868</v>
       </c>
     </row>
     <row r="480">
       <c r="A480" t="n">
-        <v>650.4980227178407</v>
+        <v>550.7017176053068</v>
       </c>
     </row>
     <row r="481">
       <c r="A481" t="n">
-        <v>600.0376177515818</v>
+        <v>558.1184217789428</v>
       </c>
     </row>
     <row r="482">
       <c r="A482" t="n">
-        <v>593.2183357912209</v>
+        <v>566.8058793686441</v>
       </c>
     </row>
     <row r="483">
       <c r="A483" t="n">
-        <v>628.44331461406</v>
+        <v>576.3390786066225</v>
       </c>
     </row>
     <row r="484">
       <c r="A484" t="n">
-        <v>725.6100175177949</v>
+        <v>618.1737705845762</v>
       </c>
     </row>
     <row r="485">
       <c r="A485" t="n">
-        <v>735.494204302654</v>
+        <v>626.4300740276667</v>
       </c>
     </row>
     <row r="486">
       <c r="A486" t="n">
-        <v>719.3909201320707</v>
+        <v>551.559110853816</v>
       </c>
     </row>
     <row r="487">
       <c r="A487" t="n">
-        <v>599.1526074079161</v>
+        <v>498.2722712803138</v>
       </c>
     </row>
     <row r="488">
       <c r="A488" t="n">
-        <v>585.9533619164381</v>
+        <v>477.8867024660371</v>
       </c>
     </row>
     <row r="489">
       <c r="A489" t="n">
-        <v>580.9228203389694</v>
+        <v>495.9654357005547</v>
       </c>
     </row>
     <row r="490">
       <c r="A490" t="n">
-        <v>582.8893917081928</v>
+        <v>522.5779678204958</v>
       </c>
     </row>
     <row r="491">
       <c r="A491" t="n">
-        <v>614.9666172386787</v>
+        <v>575.2351237554194</v>
       </c>
     </row>
     <row r="492">
       <c r="A492" t="n">
-        <v>590.1755353725662</v>
+        <v>592.309590399509</v>
       </c>
     </row>
     <row r="493">
       <c r="A493" t="n">
-        <v>594.0481165125107</v>
+        <v>594.4020593324808</v>
       </c>
     </row>
     <row r="494">
       <c r="A494" t="n">
-        <v>638.2709941225926</v>
+        <v>562.865596314964</v>
       </c>
     </row>
     <row r="495">
       <c r="A495" t="n">
-        <v>624.9556099004963</v>
+        <v>546.0482789379171</v>
       </c>
     </row>
     <row r="496">
       <c r="A496" t="n">
-        <v>568.2825216843526</v>
+        <v>556.0668937748119</v>
       </c>
     </row>
     <row r="497">
       <c r="A497" t="n">
-        <v>523.9822350561099</v>
+        <v>562.5923876033312</v>
       </c>
     </row>
     <row r="498">
       <c r="A498" t="n">
-        <v>526.9210827276538</v>
+        <v>580.8537123697306</v>
       </c>
     </row>
     <row r="499">
       <c r="A499" t="n">
-        <v>526.6480524488202</v>
+        <v>598.9672089542637</v>
       </c>
     </row>
     <row r="500">
       <c r="A500" t="n">
-        <v>535.9605167911354</v>
+        <v>619.764315720488</v>
       </c>
     </row>
     <row r="501">
       <c r="A501" t="n">
-        <v>552.3536129907711</v>
+        <v>642.5993448239069</v>
       </c>
     </row>
     <row r="502">
       <c r="A502" t="n">
-        <v>646.7163045790016</v>
+        <v>605.0921356231242</v>
       </c>
     </row>
     <row r="503">
       <c r="A503" t="n">
-        <v>658.376459428041</v>
+        <v>653.9323902895262</v>
       </c>
     </row>
     <row r="504">
       <c r="A504" t="n">
-        <v>745.5570279273047</v>
+        <v>646.7509830468998</v>
       </c>
     </row>
     <row r="505">
       <c r="A505" t="n">
-        <v>787.92246318244</v>
+        <v>683.400862567396</v>
       </c>
     </row>
     <row r="506">
       <c r="A506" t="n">
-        <v>841.7228307454252</v>
+        <v>633.6268866822365</v>
       </c>
     </row>
     <row r="507">
       <c r="A507" t="n">
-        <v>843.9872281890075</v>
+        <v>575.4231922753661</v>
       </c>
     </row>
     <row r="508">
       <c r="A508" t="n">
-        <v>724.7777504878172</v>
+        <v>572.0169690283683</v>
       </c>
     </row>
     <row r="509">
       <c r="A509" t="n">
-        <v>662.8174736142682</v>
+        <v>601.4522353592042</v>
       </c>
     </row>
     <row r="510">
       <c r="A510" t="n">
-        <v>637.12947989643</v>
+        <v>574.2530293187542</v>
       </c>
     </row>
     <row r="511">
       <c r="A511" t="n">
-        <v>612.4989263978478</v>
+        <v>573.638509202965</v>
       </c>
     </row>
     <row r="512">
       <c r="A512" t="n">
-        <v>644.279041057132</v>
+        <v>589.7292360365896</v>
       </c>
     </row>
     <row r="513">
       <c r="A513" t="n">
-        <v>664.0731589183702</v>
+        <v>643.1182309459587</v>
       </c>
     </row>
     <row r="514">
       <c r="A514" t="n">
-        <v>671.5796246613195</v>
+        <v>722.9588451514815</v>
       </c>
     </row>
     <row r="515">
       <c r="A515" t="n">
-        <v>711.2462135482929</v>
+        <v>778.3328749263774</v>
       </c>
     </row>
     <row r="516">
       <c r="A516" t="n">
-        <v>706.4226362090835</v>
+        <v>837.0308168898077</v>
       </c>
     </row>
     <row r="517">
       <c r="A517" t="n">
-        <v>676.2735006685716</v>
+        <v>751.2450880939809</v>
       </c>
     </row>
     <row r="518">
       <c r="A518" t="n">
-        <v>701.7153523055981</v>
+        <v>591.6253103023337</v>
       </c>
     </row>
     <row r="519">
       <c r="A519" t="n">
-        <v>663.8204324572143</v>
+        <v>578.2849181478582</v>
       </c>
     </row>
     <row r="520">
       <c r="A520" t="n">
-        <v>636.2098564338794</v>
+        <v>588.7339629835537</v>
       </c>
     </row>
     <row r="521">
       <c r="A521" t="n">
-        <v>627.612744827843</v>
+        <v>631.4176022849551</v>
       </c>
     </row>
     <row r="522">
       <c r="A522" t="n">
-        <v>678.5806432483241</v>
+        <v>653.5540562683195</v>
       </c>
     </row>
     <row r="523">
       <c r="A523" t="n">
-        <v>664.0975896188479</v>
+        <v>646.4877292341384</v>
       </c>
     </row>
     <row r="524">
       <c r="A524" t="n">
-        <v>657.8852610699073</v>
+        <v>591.2807164773994</v>
       </c>
     </row>
     <row r="525">
       <c r="A525" t="n">
-        <v>685.6003681480161</v>
+        <v>598.5609667347376</v>
       </c>
     </row>
     <row r="526">
       <c r="A526" t="n">
-        <v>748.9844036321074</v>
+        <v>597.0420453517704</v>
       </c>
     </row>
     <row r="527">
       <c r="A527" t="n">
-        <v>778.8982863393699</v>
+        <v>599.6542378180152</v>
       </c>
     </row>
     <row r="528">
       <c r="A528" t="n">
-        <v>776.7729873486928</v>
+        <v>593.4126601108574</v>
       </c>
     </row>
     <row r="529">
       <c r="A529" t="n">
-        <v>738.496907012518</v>
+        <v>625.0250895614613</v>
       </c>
     </row>
     <row r="530">
       <c r="A530" t="n">
-        <v>692.5626064642643</v>
+        <v>619.3130504463511</v>
       </c>
     </row>
     <row r="531">
       <c r="A531" t="n">
-        <v>672.843951640516</v>
+        <v>633.5417454640151</v>
       </c>
     </row>
     <row r="532">
       <c r="A532" t="n">
-        <v>647.0809057353222</v>
+        <v>655.2620663090352</v>
       </c>
     </row>
     <row r="533">
       <c r="A533" t="n">
-        <v>614.9786687073515</v>
+        <v>678.9114452184322</v>
       </c>
     </row>
     <row r="534">
       <c r="A534" t="n">
-        <v>533.6694215026796</v>
+        <v>707.7410243286408</v>
       </c>
     </row>
     <row r="535">
       <c r="A535" t="n">
-        <v>523.3727460138198</v>
+        <v>717.7644306080992</v>
       </c>
     </row>
     <row r="536">
       <c r="A536" t="n">
-        <v>571.6779002107728</v>
+        <v>672.6027571116902</v>
       </c>
     </row>
     <row r="537">
       <c r="A537" t="n">
-        <v>605.9297763063114</v>
+        <v>664.3249174520633</v>
       </c>
     </row>
     <row r="538">
       <c r="A538" t="n">
-        <v>620.2163494028241</v>
+        <v>660.9378699113222</v>
       </c>
     </row>
     <row r="539">
       <c r="A539" t="n">
-        <v>638.2871676298691</v>
+        <v>625.9298318657329</v>
       </c>
     </row>
     <row r="540">
       <c r="A540" t="n">
-        <v>668.904386464078</v>
+        <v>635.7042128196326</v>
       </c>
     </row>
     <row r="541">
       <c r="A541" t="n">
-        <v>673.6471490624467</v>
+        <v>619.5715539794264</v>
       </c>
     </row>
     <row r="542">
       <c r="A542" t="n">
-        <v>666.0606901108395</v>
+        <v>643.8448708817077</v>
       </c>
     </row>
     <row r="543">
       <c r="A543" t="n">
-        <v>608.8109448379555</v>
+        <v>682.0345575379747</v>
       </c>
     </row>
     <row r="544">
       <c r="A544" t="n">
-        <v>564.294180701836</v>
+        <v>716.3996669277708</v>
       </c>
     </row>
     <row r="545">
       <c r="A545" t="n">
-        <v>569.7484679195099</v>
+        <v>696.8273796657627</v>
       </c>
     </row>
     <row r="546">
       <c r="A546" t="n">
-        <v>611.0342708245184</v>
+        <v>599.3751922324577</v>
       </c>
     </row>
     <row r="547">
       <c r="A547" t="n">
-        <v>636.1150188139959</v>
+        <v>530.5878169064044</v>
       </c>
     </row>
     <row r="548">
       <c r="A548" t="n">
-        <v>628.5848853966627</v>
+        <v>579.096059583037</v>
       </c>
     </row>
     <row r="549">
       <c r="A549" t="n">
-        <v>629.2035448585125</v>
+        <v>662.2057091877309</v>
       </c>
     </row>
     <row r="550">
       <c r="A550" t="n">
-        <v>619.4902182832607</v>
+        <v>705.3235423918522</v>
       </c>
     </row>
     <row r="551">
       <c r="A551" t="n">
-        <v>623.9842045956721</v>
+        <v>717.7302493342381</v>
       </c>
     </row>
     <row r="552">
       <c r="A552" t="n">
-        <v>634.0387078045637</v>
+        <v>701.2896296609483</v>
       </c>
     </row>
     <row r="553">
       <c r="A553" t="n">
-        <v>605.9392833561219</v>
+        <v>734.4023331291964</v>
       </c>
     </row>
     <row r="554">
       <c r="A554" t="n">
-        <v>552.5638918239224</v>
+        <v>778.1900524465755</v>
       </c>
     </row>
     <row r="555">
       <c r="A555" t="n">
-        <v>521.9881766820436</v>
+        <v>800.5014931065375</v>
       </c>
     </row>
     <row r="556">
       <c r="A556" t="n">
-        <v>538.0008320596517</v>
+        <v>747.2972176833537</v>
       </c>
     </row>
     <row r="557">
       <c r="A557" t="n">
-        <v>613.8306289864772</v>
+        <v>712.232633210192</v>
       </c>
     </row>
     <row r="558">
       <c r="A558" t="n">
-        <v>698.3089206912041</v>
+        <v>653.5411945787928</v>
       </c>
     </row>
     <row r="559">
       <c r="A559" t="n">
-        <v>682.9125222569132</v>
+        <v>632.9715066949575</v>
       </c>
     </row>
     <row r="560">
       <c r="A560" t="n">
-        <v>716.7441365890568</v>
+        <v>575.6811413350533</v>
       </c>
     </row>
     <row r="561">
       <c r="A561" t="n">
-        <v>696.1805937716008</v>
+        <v>503.3810509908108</v>
       </c>
     </row>
     <row r="562">
       <c r="A562" t="n">
-        <v>734.8314824149043</v>
+        <v>499.7658741938267</v>
       </c>
     </row>
     <row r="563">
       <c r="A563" t="n">
-        <v>732.3729706961331</v>
+        <v>529.5950756416801</v>
       </c>
     </row>
     <row r="564">
       <c r="A564" t="n">
-        <v>631.9562173715667</v>
+        <v>557.1353025086978</v>
       </c>
     </row>
     <row r="565">
       <c r="A565" t="n">
-        <v>576.8973659877474</v>
+        <v>582.1763346130524</v>
       </c>
     </row>
     <row r="566">
       <c r="A566" t="n">
-        <v>620.5320482148409</v>
+        <v>622.4667757255702</v>
       </c>
     </row>
     <row r="567">
       <c r="A567" t="n">
-        <v>640.6168446824267</v>
+        <v>693.6654804259206</v>
       </c>
     </row>
     <row r="568">
       <c r="A568" t="n">
-        <v>607.5167820410456</v>
+        <v>719.3760657398229</v>
       </c>
     </row>
     <row r="569">
       <c r="A569" t="n">
-        <v>604.3011416948616</v>
+        <v>754.4157525468336</v>
       </c>
     </row>
     <row r="570">
       <c r="A570" t="n">
-        <v>644.6536676241408</v>
+        <v>668.4627106117773</v>
       </c>
     </row>
     <row r="571">
       <c r="A571" t="n">
-        <v>706.1569268518042</v>
+        <v>617.2036845816251</v>
       </c>
     </row>
     <row r="572">
       <c r="A572" t="n">
-        <v>679.0978237251579</v>
+        <v>583.3566999461937</v>
       </c>
     </row>
     <row r="573">
       <c r="A573" t="n">
-        <v>669.6505824353949</v>
+        <v>563.2050765998429</v>
       </c>
     </row>
     <row r="574">
       <c r="A574" t="n">
-        <v>681.7116657542215</v>
+        <v>538.0616295523168</v>
       </c>
     </row>
     <row r="575">
       <c r="A575" t="n">
-        <v>712.9224712041378</v>
+        <v>557.0531480924501</v>
       </c>
     </row>
     <row r="576">
       <c r="A576" t="n">
-        <v>747.8616611526832</v>
+        <v>598.3143553132777</v>
       </c>
     </row>
     <row r="577">
       <c r="A577" t="n">
-        <v>719.5139449565318</v>
+        <v>664.757597547009</v>
       </c>
     </row>
     <row r="578">
       <c r="A578" t="n">
-        <v>697.5742012718911</v>
+        <v>730.105214959849</v>
       </c>
     </row>
     <row r="579">
       <c r="A579" t="n">
-        <v>678.3803938120627</v>
+        <v>724.9942202357147</v>
       </c>
     </row>
     <row r="580">
       <c r="A580" t="n">
-        <v>659.6151086009741</v>
+        <v>613.700439958734</v>
       </c>
     </row>
     <row r="581">
       <c r="A581" t="n">
-        <v>621.750344969314</v>
+        <v>541.3833836183812</v>
       </c>
     </row>
     <row r="582">
       <c r="A582" t="n">
-        <v>635.0719102514972</v>
+        <v>474.4997904616639</v>
       </c>
     </row>
     <row r="583">
       <c r="A583" t="n">
-        <v>664.1041887363599</v>
+        <v>465.1494167118244</v>
       </c>
     </row>
     <row r="584">
       <c r="A584" t="n">
-        <v>752.9362316743686</v>
+        <v>448.0623385722993</v>
       </c>
     </row>
     <row r="585">
       <c r="A585" t="n">
-        <v>848.8981911551718</v>
+        <v>455.0733603375647</v>
       </c>
     </row>
     <row r="586">
       <c r="A586" t="n">
-        <v>862.9664301814159</v>
+        <v>525.8447465869835</v>
       </c>
     </row>
     <row r="587">
       <c r="A587" t="n">
-        <v>809.8755507245414</v>
+        <v>652.023621391038</v>
       </c>
     </row>
     <row r="588">
       <c r="A588" t="n">
-        <v>670.7469610021235</v>
+        <v>723.9959205832065</v>
       </c>
     </row>
     <row r="589">
       <c r="A589" t="n">
-        <v>604.1092649406323</v>
+        <v>787.5013021209725</v>
       </c>
     </row>
     <row r="590">
       <c r="A590" t="n">
-        <v>613.724040649231</v>
+        <v>897.5031739844894</v>
       </c>
     </row>
     <row r="591">
       <c r="A591" t="n">
-        <v>587.8719113447346</v>
+        <v>837.6709633213864</v>
       </c>
     </row>
     <row r="592">
       <c r="A592" t="n">
-        <v>571.6701440681504</v>
+        <v>852.1251781544379</v>
       </c>
     </row>
     <row r="593">
       <c r="A593" t="n">
-        <v>617.7508236513063</v>
+        <v>775.584487139497</v>
       </c>
     </row>
     <row r="594">
       <c r="A594" t="n">
-        <v>636.8464126389313</v>
+        <v>640.0620463780911</v>
       </c>
     </row>
     <row r="595">
       <c r="A595" t="n">
-        <v>601.7270974060693</v>
+        <v>594.7505898376448</v>
       </c>
     </row>
     <row r="596">
       <c r="A596" t="n">
-        <v>603.876022246709</v>
+        <v>598.7566942863509</v>
       </c>
     </row>
     <row r="597">
       <c r="A597" t="n">
-        <v>641.5640434516376</v>
+        <v>603.0581153529511</v>
       </c>
     </row>
     <row r="598">
       <c r="A598" t="n">
-        <v>675.1541817631619</v>
+        <v>534.7618187556122</v>
       </c>
     </row>
     <row r="599">
       <c r="A599" t="n">
-        <v>723.3490555501589</v>
+        <v>531.7247061447006</v>
       </c>
     </row>
     <row r="600">
       <c r="A600" t="n">
-        <v>754.8930998401033</v>
+        <v>564.9306789039201</v>
       </c>
     </row>
     <row r="601">
       <c r="A601" t="n">
-        <v>802.4850491573829</v>
+        <v>630.4503246198578</v>
       </c>
     </row>
     <row r="602">
       <c r="A602" t="n">
-        <v>669.4842504386429</v>
+        <v>669.0842449419847</v>
       </c>
     </row>
     <row r="603">
       <c r="A603" t="n">
-        <v>554.1634459511897</v>
+        <v>662.4528605291289</v>
       </c>
     </row>
     <row r="604">
       <c r="A604" t="n">
-        <v>532.3805696189083</v>
+        <v>652.9156313582121</v>
       </c>
     </row>
     <row r="605">
       <c r="A605" t="n">
-        <v>554.173983663361</v>
+        <v>626.0558204156155</v>
       </c>
     </row>
     <row r="606">
       <c r="A606" t="n">
-        <v>580.0841601425191</v>
+        <v>594.0533335646592</v>
       </c>
     </row>
     <row r="607">
       <c r="A607" t="n">
-        <v>532.2710251845706</v>
+        <v>558.2208360825689</v>
       </c>
     </row>
     <row r="608">
       <c r="A608" t="n">
-        <v>567.6559611892458</v>
+        <v>500.7152257516054</v>
       </c>
     </row>
     <row r="609">
       <c r="A609" t="n">
-        <v>653.9990341871089</v>
+        <v>507.2910824020482</v>
       </c>
     </row>
     <row r="610">
       <c r="A610" t="n">
-        <v>709.9091564134596</v>
+        <v>517.3142378814646</v>
       </c>
     </row>
     <row r="611">
       <c r="A611" t="n">
-        <v>750.2803017946462</v>
+        <v>509.5596325959946</v>
       </c>
     </row>
     <row r="612">
       <c r="A612" t="n">
-        <v>703.0917662490879</v>
+        <v>573.6808541670939</v>
       </c>
     </row>
     <row r="613">
       <c r="A613" t="n">
-        <v>647.6443626671653</v>
+        <v>653.0153042758116</v>
       </c>
     </row>
     <row r="614">
       <c r="A614" t="n">
-        <v>598.6205657716255</v>
+        <v>756.9162684263233</v>
       </c>
     </row>
     <row r="615">
       <c r="A615" t="n">
-        <v>536.6851024114681</v>
+        <v>759.3179397426866</v>
       </c>
     </row>
     <row r="616">
       <c r="A616" t="n">
-        <v>533.3304955951235</v>
+        <v>755.3303911447529</v>
       </c>
     </row>
     <row r="617">
       <c r="A617" t="n">
-        <v>595.4124361938398</v>
+        <v>711.8162010988272</v>
       </c>
     </row>
     <row r="618">
       <c r="A618" t="n">
-        <v>674.7276623639777</v>
+        <v>636.8037361117445</v>
       </c>
     </row>
     <row r="619">
       <c r="A619" t="n">
-        <v>757.7777246735309</v>
+        <v>524.4104917246091</v>
       </c>
     </row>
     <row r="620">
       <c r="A620" t="n">
-        <v>788.580525092982</v>
+        <v>454.3820112333492</v>
       </c>
     </row>
     <row r="621">
       <c r="A621" t="n">
-        <v>719.019629680588</v>
+        <v>427.949292107769</v>
       </c>
     </row>
     <row r="622">
       <c r="A622" t="n">
-        <v>698.2755037766992</v>
+        <v>456.8363963642241</v>
       </c>
     </row>
     <row r="623">
       <c r="A623" t="n">
-        <v>655.1671855370387</v>
+        <v>516.547638003658</v>
       </c>
     </row>
     <row r="624">
       <c r="A624" t="n">
-        <v>577.2338705664879</v>
+        <v>606.0742715167748</v>
       </c>
     </row>
     <row r="625">
       <c r="A625" t="n">
-        <v>522.9968241781648</v>
+        <v>650.0890471660909</v>
       </c>
     </row>
     <row r="626">
       <c r="A626" t="n">
-        <v>464.8051520788385</v>
+        <v>668.0213015866912</v>
       </c>
     </row>
     <row r="627">
       <c r="A627" t="n">
-        <v>463.9732707362327</v>
+        <v>723.3155412880592</v>
       </c>
     </row>
     <row r="628">
       <c r="A628" t="n">
-        <v>531.526020869876</v>
+        <v>715.5523530519758</v>
       </c>
     </row>
     <row r="629">
       <c r="A629" t="n">
-        <v>533.0423079938669</v>
+        <v>654.0529291182793</v>
       </c>
     </row>
     <row r="630">
       <c r="A630" t="n">
-        <v>607.8273055838963</v>
+        <v>568.4438209166274</v>
       </c>
     </row>
     <row r="631">
       <c r="A631" t="n">
-        <v>692.6386299853675</v>
+        <v>537.0138417699195</v>
       </c>
     </row>
     <row r="632">
       <c r="A632" t="n">
-        <v>685.6651002241847</v>
+        <v>585.4821983294869</v>
       </c>
     </row>
     <row r="633">
       <c r="A633" t="n">
-        <v>662.4128985748712</v>
+        <v>613.469140064467</v>
       </c>
     </row>
     <row r="634">
       <c r="A634" t="n">
-        <v>651.9650855883583</v>
+        <v>630.8487649424706</v>
       </c>
     </row>
     <row r="635">
       <c r="A635" t="n">
-        <v>611.8713732900005</v>
+        <v>633.8982088623197</v>
       </c>
     </row>
     <row r="636">
       <c r="A636" t="n">
-        <v>588.6715724319629</v>
+        <v>629.7367587126246</v>
       </c>
     </row>
     <row r="637">
       <c r="A637" t="n">
-        <v>636.7943022181635</v>
+        <v>602.3960771429984</v>
       </c>
     </row>
     <row r="638">
       <c r="A638" t="n">
-        <v>625.1167618966633</v>
+        <v>631.1199081975474</v>
       </c>
     </row>
     <row r="639">
       <c r="A639" t="n">
-        <v>609.9399749572854</v>
+        <v>617.3535886410946</v>
       </c>
     </row>
     <row r="640">
       <c r="A640" t="n">
-        <v>622.4455355271061</v>
+        <v>592.8776147288772</v>
       </c>
     </row>
     <row r="641">
       <c r="A641" t="n">
-        <v>660.0897850339038</v>
+        <v>619.9941050365396</v>
       </c>
     </row>
     <row r="642">
       <c r="A642" t="n">
-        <v>751.1758776693114</v>
+        <v>617.509094063621</v>
       </c>
     </row>
     <row r="643">
       <c r="A643" t="n">
-        <v>734.8162156132503</v>
+        <v>594.3930910916606</v>
       </c>
     </row>
     <row r="644">
       <c r="A644" t="n">
-        <v>757.7807912069829</v>
+        <v>527.3990838427949</v>
       </c>
     </row>
     <row r="645">
       <c r="A645" t="n">
-        <v>824.1007501600848</v>
+        <v>487.708963188993</v>
       </c>
     </row>
     <row r="646">
       <c r="A646" t="n">
-        <v>774.7087929882923</v>
+        <v>479.6128241029578</v>
       </c>
     </row>
     <row r="647">
       <c r="A647" t="n">
-        <v>703.3173530066961</v>
+        <v>488.6631542300961</v>
       </c>
     </row>
     <row r="648">
       <c r="A648" t="n">
-        <v>679.5479547741934</v>
+        <v>537.6846335113896</v>
       </c>
     </row>
     <row r="649">
       <c r="A649" t="n">
-        <v>639.240887279982</v>
+        <v>593.7945735631729</v>
       </c>
     </row>
     <row r="650">
       <c r="A650" t="n">
-        <v>563.0127289784355</v>
+        <v>643.0653835814155</v>
       </c>
     </row>
     <row r="651">
       <c r="A651" t="n">
-        <v>558.4803836362653</v>
+        <v>604.3653870261778</v>
       </c>
     </row>
     <row r="652">
       <c r="A652" t="n">
-        <v>640.0030925658484</v>
+        <v>571.9913879195815</v>
       </c>
     </row>
     <row r="653">
       <c r="A653" t="n">
-        <v>739.7416332300963</v>
+        <v>586.3383412895473</v>
       </c>
     </row>
     <row r="654">
       <c r="A654" t="n">
-        <v>781.5218441510865</v>
+        <v>594.0249133938096</v>
       </c>
     </row>
     <row r="655">
       <c r="A655" t="n">
-        <v>788.5513186243998</v>
+        <v>595.3372619254651</v>
       </c>
     </row>
     <row r="656">
       <c r="A656" t="n">
-        <v>708.586156993249</v>
+        <v>609.8636259148975</v>
       </c>
     </row>
     <row r="657">
       <c r="A657" t="n">
-        <v>684.777114250835</v>
+        <v>573.1329174689677</v>
       </c>
     </row>
     <row r="658">
       <c r="A658" t="n">
-        <v>666.8439175232947</v>
+        <v>545.2483028702204</v>
       </c>
     </row>
     <row r="659">
       <c r="A659" t="n">
-        <v>598.7031677917685</v>
+        <v>535.1568150706498</v>
       </c>
     </row>
     <row r="660">
       <c r="A660" t="n">
-        <v>551.8819222735942</v>
+        <v>554.6625969113848</v>
       </c>
     </row>
     <row r="661">
       <c r="A661" t="n">
-        <v>546.956771583325</v>
+        <v>604.3563629450546</v>
       </c>
     </row>
     <row r="662">
       <c r="A662" t="n">
-        <v>569.9643050436975</v>
+        <v>635.0230940439587</v>
       </c>
     </row>
     <row r="663">
       <c r="A663" t="n">
-        <v>575.1780896737841</v>
+        <v>645.1159252973753</v>
       </c>
     </row>
     <row r="664">
       <c r="A664" t="n">
-        <v>606.0169636734258</v>
+        <v>666.6419237216132</v>
       </c>
     </row>
     <row r="665">
       <c r="A665" t="n">
-        <v>604.2506736642963</v>
+        <v>628.3963076857049</v>
       </c>
     </row>
     <row r="666">
       <c r="A666" t="n">
-        <v>652.5793085254463</v>
+        <v>608.2198601433788</v>
       </c>
     </row>
     <row r="667">
       <c r="A667" t="n">
-        <v>715.3619796389421</v>
+        <v>648.0676732094253</v>
       </c>
     </row>
     <row r="668">
       <c r="A668" t="n">
-        <v>748.4834959405475</v>
+        <v>606.6116451412995</v>
       </c>
     </row>
     <row r="669">
       <c r="A669" t="n">
-        <v>755.5077884300658</v>
+        <v>594.2092345019887</v>
       </c>
     </row>
     <row r="670">
       <c r="A670" t="n">
-        <v>743.6272385671145</v>
+        <v>637.4977391732273</v>
       </c>
     </row>
     <row r="671">
       <c r="A671" t="n">
-        <v>745.9887476985614</v>
+        <v>649.6808434725949</v>
       </c>
     </row>
     <row r="672">
       <c r="A672" t="n">
-        <v>768.6958952342025</v>
+        <v>655.276565100678</v>
       </c>
     </row>
     <row r="673">
       <c r="A673" t="n">
-        <v>753.4148121879412</v>
+        <v>680.6672823568647</v>
       </c>
     </row>
     <row r="674">
       <c r="A674" t="n">
-        <v>770.442344282344</v>
+        <v>621.8141659649632</v>
       </c>
     </row>
     <row r="675">
       <c r="A675" t="n">
-        <v>746.7401350504019</v>
+        <v>593.285754277133</v>
       </c>
     </row>
     <row r="676">
       <c r="A676" t="n">
-        <v>745.9546592072002</v>
+        <v>623.5026202191989</v>
       </c>
     </row>
     <row r="677">
       <c r="A677" t="n">
-        <v>751.9100556000922</v>
+        <v>603.0040798962091</v>
       </c>
     </row>
     <row r="678">
       <c r="A678" t="n">
-        <v>750.4217228260472</v>
+        <v>602.7772363163422</v>
       </c>
     </row>
     <row r="679">
       <c r="A679" t="n">
-        <v>628.1726052361023</v>
+        <v>652.3709717782822</v>
       </c>
     </row>
     <row r="680">
       <c r="A680" t="n">
-        <v>535.5737097997917</v>
+        <v>615.7848120740255</v>
       </c>
     </row>
     <row r="681">
       <c r="A681" t="n">
-        <v>535.8523711561816</v>
+        <v>638.1792579723538</v>
       </c>
     </row>
     <row r="682">
       <c r="A682" t="n">
-        <v>583.0019724890008</v>
+        <v>690.6879938554198</v>
       </c>
     </row>
     <row r="683">
       <c r="A683" t="n">
-        <v>627.9649908922238</v>
+        <v>679.3401383681612</v>
       </c>
     </row>
     <row r="684">
       <c r="A684" t="n">
-        <v>646.8207612476249</v>
+        <v>693.8476031714345</v>
       </c>
     </row>
     <row r="685">
       <c r="A685" t="n">
-        <v>603.2304168592191</v>
+        <v>626.8686446188667</v>
       </c>
     </row>
     <row r="686">
       <c r="A686" t="n">
-        <v>622.3284345890079</v>
+        <v>578.8444961882533</v>
       </c>
     </row>
     <row r="687">
       <c r="A687" t="n">
-        <v>644.7655408148307</v>
+        <v>593.2370442638444</v>
       </c>
     </row>
     <row r="688">
       <c r="A688" t="n">
-        <v>627.8201205601022</v>
+        <v>625.3202616134104</v>
       </c>
     </row>
     <row r="689">
       <c r="A689" t="n">
-        <v>694.7196829473228</v>
+        <v>672.1946047975393</v>
       </c>
     </row>
     <row r="690">
       <c r="A690" t="n">
-        <v>777.6480302872528</v>
+        <v>708.0189385206381</v>
       </c>
     </row>
     <row r="691">
       <c r="A691" t="n">
-        <v>732.3586784179383</v>
+        <v>756.5188731887247</v>
       </c>
     </row>
     <row r="692">
       <c r="A692" t="n">
-        <v>746.1579998602588</v>
+        <v>781.8954548662305</v>
       </c>
     </row>
     <row r="693">
       <c r="A693" t="n">
-        <v>754.9210340490049</v>
+        <v>849.6043308122125</v>
       </c>
     </row>
     <row r="694">
       <c r="A694" t="n">
-        <v>713.0429267205045</v>
+        <v>700.7552625159406</v>
       </c>
     </row>
     <row r="695">
       <c r="A695" t="n">
-        <v>651.7999332065756</v>
+        <v>595.6746733040177</v>
       </c>
     </row>
     <row r="696">
       <c r="A696" t="n">
-        <v>574.2577063576846</v>
+        <v>552.4063877292065</v>
       </c>
     </row>
     <row r="697">
       <c r="A697" t="n">
-        <v>550.5273846926002</v>
+        <v>580.1422720292635</v>
       </c>
     </row>
   </sheetData>
